--- a/aeri2011_data_reconciled.xlsx
+++ b/aeri2011_data_reconciled.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\AERI Grand Challenges\Uploaded to GitHub and finalized\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F072C6B4-53DC-4B70-8145-532EC80E652B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B58BD4-9DD8-426C-9E34-389747E6DFDB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11604" windowHeight="8928" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="293">
   <si>
     <t>ID Number</t>
   </si>
@@ -857,9 +857,6 @@
 A Lightning Talk is a short presentation given at a conference or similar forum. Unlike other presentations, lightning talks last only a few minutes and several will usually be delivered in a single period by different speakers. (Wikipedia)</t>
   </si>
   <si>
-    <t>Amy Greer</t>
-  </si>
-  <si>
     <t>Sung Su Park</t>
   </si>
   <si>
@@ -1018,7 +1015,16 @@
 https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
   </si>
   <si>
-    <t>[No session title in program.]</t>
+    <t>Karen Anderson; Eric Ketelaar; Andrew Flinn; Meung-Hoan Noh</t>
+  </si>
+  <si>
+    <t>Mid Sweden University; University of Amsterdam; University College London; Hankuk University of Foreign Studies</t>
+  </si>
+  <si>
+    <t>Amy Greer; Amelia Abreu; Alexandra Eveleigh; Leisa Gibbons; Allison Krebs; Proscovia Svärd</t>
+  </si>
+  <si>
+    <t>Simmons College; University of Washington; University College London; Monash University; University of Washington; Mid Sweden University</t>
   </si>
 </sst>
 </file>
@@ -1521,9 +1527,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1590,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1619,7 +1625,7 @@
         <v>131</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -1648,7 +1654,7 @@
         <v>131</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -1677,7 +1683,7 @@
         <v>131</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1706,7 +1712,7 @@
         <v>131</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -1735,7 +1741,7 @@
         <v>131</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -1764,7 +1770,7 @@
         <v>131</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -1793,7 +1799,7 @@
         <v>131</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -1822,7 +1828,7 @@
         <v>131</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
@@ -1851,7 +1857,7 @@
         <v>131</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1880,7 +1886,7 @@
         <v>131</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -1909,7 +1915,7 @@
         <v>131</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1938,7 +1944,7 @@
         <v>131</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1967,7 +1973,7 @@
         <v>131</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -1996,7 +2002,7 @@
         <v>131</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -2010,7 +2016,7 @@
         <v>188</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>290</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>239</v>
@@ -2025,7 +2031,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -2054,7 +2060,7 @@
         <v>131</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -2083,7 +2089,7 @@
         <v>131</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2112,7 +2118,7 @@
         <v>131</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
@@ -2141,7 +2147,7 @@
         <v>131</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -2170,7 +2176,7 @@
         <v>131</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -2199,7 +2205,7 @@
         <v>131</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -2228,7 +2234,7 @@
         <v>131</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -2257,7 +2263,7 @@
         <v>131</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -2286,7 +2292,7 @@
         <v>131</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -2315,7 +2321,7 @@
         <v>131</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="218.4" x14ac:dyDescent="0.3">
@@ -2344,7 +2350,7 @@
         <v>131</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -2373,7 +2379,7 @@
         <v>131</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2402,7 +2408,7 @@
         <v>131</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -2431,7 +2437,7 @@
         <v>131</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2448,7 +2454,7 @@
         <v>50</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>118</v>
@@ -2460,7 +2466,7 @@
         <v>131</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2489,7 +2495,7 @@
         <v>131</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2497,10 +2503,10 @@
         <v>2011033</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>186</v>
+        <v>292</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>10</v>
@@ -2518,7 +2524,7 @@
         <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
@@ -2547,7 +2553,7 @@
         <v>131</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2576,7 +2582,7 @@
         <v>131</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="156" x14ac:dyDescent="0.3">
@@ -2605,7 +2611,7 @@
         <v>131</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="156" x14ac:dyDescent="0.3">
@@ -2634,7 +2640,7 @@
         <v>131</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -2642,7 +2648,7 @@
         <v>2011038</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>243</v>
@@ -2663,7 +2669,7 @@
         <v>131</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -2692,7 +2698,7 @@
         <v>131</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -2721,7 +2727,7 @@
         <v>131</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -2738,7 +2744,7 @@
         <v>62</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>228</v>
@@ -2750,7 +2756,7 @@
         <v>131</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2767,7 +2773,7 @@
         <v>62</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>212</v>
@@ -2779,7 +2785,7 @@
         <v>131</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2787,19 +2793,19 @@
         <v>2011043</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>289</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>176</v>
+        <v>290</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>10</v>
@@ -2808,7 +2814,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -2825,7 +2831,7 @@
         <v>65</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>228</v>
@@ -2837,7 +2843,7 @@
         <v>131</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2854,7 +2860,7 @@
         <v>65</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>205</v>
@@ -2866,7 +2872,7 @@
         <v>131</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -2874,7 +2880,7 @@
         <v>2011046</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>178</v>
@@ -2895,7 +2901,7 @@
         <v>131</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2924,7 +2930,7 @@
         <v>131</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2941,7 +2947,7 @@
         <v>68</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>120</v>
@@ -2953,7 +2959,7 @@
         <v>131</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2982,7 +2988,7 @@
         <v>131</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3011,7 +3017,7 @@
         <v>131</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="312" x14ac:dyDescent="0.3">
@@ -3040,7 +3046,7 @@
         <v>131</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3069,7 +3075,7 @@
         <v>131</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
@@ -3098,7 +3104,7 @@
         <v>131</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -3106,7 +3112,7 @@
         <v>2011054</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>188</v>
@@ -3127,7 +3133,7 @@
         <v>131</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3156,7 +3162,7 @@
         <v>131</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -3173,7 +3179,7 @@
         <v>76</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>228</v>
@@ -3185,7 +3191,7 @@
         <v>131</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -3202,7 +3208,7 @@
         <v>76</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>228</v>
@@ -3214,7 +3220,7 @@
         <v>131</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3243,7 +3249,7 @@
         <v>131</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -3251,10 +3257,10 @@
         <v>2011059</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>76</v>
@@ -3272,7 +3278,7 @@
         <v>131</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="218.4" x14ac:dyDescent="0.3">
@@ -3286,7 +3292,7 @@
         <v>190</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>290</v>
+        <v>132</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>81</v>
@@ -3301,7 +3307,7 @@
         <v>131</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -3315,7 +3321,7 @@
         <v>177</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>290</v>
+        <v>10</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>189</v>
@@ -3330,7 +3336,7 @@
         <v>10</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -3344,7 +3350,7 @@
         <v>191</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>290</v>
+        <v>132</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>82</v>
@@ -3359,7 +3365,7 @@
         <v>131</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="218.4" x14ac:dyDescent="0.3">
@@ -3373,7 +3379,7 @@
         <v>186</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>290</v>
+        <v>132</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>84</v>
@@ -3388,7 +3394,7 @@
         <v>131</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
@@ -3417,7 +3423,7 @@
         <v>131</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3434,7 +3440,7 @@
         <v>86</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>193</v>
@@ -3446,7 +3452,7 @@
         <v>131</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
@@ -3475,7 +3481,7 @@
         <v>131</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3486,7 +3492,7 @@
         <v>90</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>86</v>
@@ -3504,7 +3510,7 @@
         <v>131</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="78" x14ac:dyDescent="0.3">
@@ -3515,13 +3521,13 @@
         <v>168</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>228</v>
@@ -3533,7 +3539,7 @@
         <v>131</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3562,7 +3568,7 @@
         <v>131</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3591,7 +3597,7 @@
         <v>131</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3620,7 +3626,7 @@
         <v>131</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
@@ -3649,7 +3655,7 @@
         <v>131</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3678,7 +3684,7 @@
         <v>131</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -3707,7 +3713,7 @@
         <v>131</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
@@ -3718,7 +3724,7 @@
         <v>100</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>86</v>
@@ -3736,7 +3742,7 @@
         <v>131</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3747,7 +3753,7 @@
         <v>102</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>86</v>
@@ -3765,7 +3771,7 @@
         <v>131</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -3776,13 +3782,13 @@
         <v>170</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>228</v>
@@ -3794,7 +3800,7 @@
         <v>131</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -3811,7 +3817,7 @@
         <v>86</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>228</v>
@@ -3823,7 +3829,7 @@
         <v>131</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3840,7 +3846,7 @@
         <v>86</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>202</v>
@@ -3852,7 +3858,7 @@
         <v>131</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="78" x14ac:dyDescent="0.3">
@@ -3881,7 +3887,7 @@
         <v>131</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
@@ -3898,7 +3904,7 @@
         <v>86</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>228</v>
@@ -3910,7 +3916,7 @@
         <v>131</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
@@ -3927,7 +3933,7 @@
         <v>86</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>228</v>
@@ -3939,7 +3945,7 @@
         <v>131</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="78" x14ac:dyDescent="0.3">
@@ -3956,7 +3962,7 @@
         <v>86</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>228</v>
@@ -3968,7 +3974,7 @@
         <v>131</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -3985,7 +3991,7 @@
         <v>86</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>228</v>
@@ -3997,7 +4003,7 @@
         <v>131</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
@@ -4008,13 +4014,13 @@
         <v>111</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>228</v>
@@ -4026,7 +4032,7 @@
         <v>131</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/aeri2011_data_reconciled.xlsx
+++ b/aeri2011_data_reconciled.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\AERI Grand Challenges\Uploaded to GitHub and finalized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HeatherSoyka/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85F828E-A197-48C4-98A1-B6D9604FC67E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDE0B69A-E31D-774C-9884-D24681B6162C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11604" windowHeight="8928" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="27700" windowHeight="19620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$90</definedName>
+  </definedNames>
   <calcPr calcId="140000"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="302">
   <si>
     <t>ID Number</t>
   </si>
@@ -323,10 +331,6 @@
 2 Mary Samouelian, “Embracing Web 2.0: Archives and the Newest Generation of Web Applications,” American Archivist75 (Spring/Summer 2009): p. 68.</t>
   </si>
   <si>
-    <t>This study aimed to gather data on how cultural institutions, specifically archives, libraries, and museums, are making archival moving images available online via institutional websites and videosharing services such as YouTube.   Archival moving images, whether they originate as analog motion picture film or video, or were born-digital, can be distinguished from other types of moving image collections by their perceived long-term value; they are materials “intended to be kept so that they may be available for future generations, regardless of their age at the time of acquisition” (see http://www.afana.org/mic.htm).  Laptops, cell phones, iPods, and iPads all offer users the opportunity to download, upload, view, and use moving images from library and archival collections in myriad ways and settings, making video consumption an anytime, anyplace phenomenon. This research aims to document current practices, attitudes, and future plans of moving image curators and managers regarding digitization and on-line distribution of archival moving images in the wake of increasingly ubiquitous mobile technologies.
-This research incorporates two data collection strategies:  surveying and interviewing.  In the first part of the study, librarians, archivists, and curators responsible for development of digital collections at their institutions were identified and asked to participate in a short (15-20 question) survey aimed at assessing the extent to which their institutions have engaged in or plan to engage in digitization of analog moving image material and acquisition of born-digital moving image material for long-term access and preservation. Questions also explore how digitized/digital moving image material has been made available to users (i.e., through institutional websites, via online catalogs, on videosharing sites, or through institutional repositories such as DSpace or Fedora).  The survey will also explore their short- and long-term plans for digitizing audiovisual material. In the second part of the study, the investigator interviewed key informants with experience managing moving image digitization projects.  Interview subjects were asked to provide information about digitization projects and programs at their institution, and were also asked to share their opinions and aspirations regarding the future of digital archival moving image collections, particularly in the wake of new distribution channels such as mobile devices.</t>
-  </si>
-  <si>
     <t>This first-year doctoral research will study the information literacy skills of novice archival users (undergraduate students) through Yakel and Torres’s Archival Intelligence (AI) model (2003) and Conway’s framework of user studies (1986). My specific research questions are: 1) what are the factors required to increase users’ AI; 2) what are the ways to fast-track the expertise of novice users; and 3) what are the best formats for dealing with AI training. The purpose of this presentation is to share the literature on AI and gather feedback to inform the design of the methodology.
 Today, the ubiquity of the Internet facilitates online access to archival information. AI attempts to model the information behavior of novice users by: 1) investigating how familiar users are with archival theory, practices, and procedures; 2) determining how they reduce uncertainty and ambiguity when searching for specific information; and 3) understanding how they make sense of the record-surrogate relationship.
 Increasingly, archivists rely on the Internet to share content. An examination of archives websites, however, indicates that the three AI dimensions are either not fully addressed or not addressed in a systematic, unified way (Bromley, 2010). This lack of usability makes it difficult for novice users to understand descriptive terminology, record formats, record organization, or which records are more likely to yield answers. While expert users use finding aids and find them useful (Duff, Craig, &amp; Cherry, 2004; Tibbo, 2002), novice users don’t always understand their purpose (Yakel, 2002). Sweeney (2002), who studied the cognitive processes of in-person archival researchers, concludes, like Yakel and Torres (2003) and, later, Anthony (2006), that more research is needed in the field of archival education training to achieve self-sufficiency (using archives as opposed to navigating in archives).
@@ -345,16 +349,7 @@
     <t>Archives and records centers based in community spaces retain the local character and individuality of their surrounding region. Dedicated archivists and records keepers provide stewardship for materials which document the activities and changing eras of a region through its historic objects. Archivists, as individuals concerned with preserving the story of their community members, effect the creation and sustainability of community archives by communicating its unique story through exhibits, hands-on presentation, writing, and collaboration. The distinctiveness of community archives preserves for society at large knowledge of the numerous cultural communities which coexist. I demonstrate how community-based archivists in fact achieve what Paul Custodio Bube states is the aim to "acknowledge our polyculture and construct education around at least some awareness of the various cultures" (Rooted in the Land, 1996, 29). The role of archivists as community builders is closely related to the archival work carried out as a proactive service. This presentation will highlight the contributions of community-based archivists to their local public, focusing on the historical origins of community collecting and illustrations of practice in teaching with archival materials. Emphasis will be given to the research methodologies for documenting urban spaces in visual, textual, and oral form. It will document how archivists engage in collaborative education with community partners and teachers while also addressing the practical issues of arranging and describing archival documents.</t>
   </si>
   <si>
-    <t xml:space="preserve">The purpose of this research is to explore the relationship between collective memory and sense of place.  Through a content analysis of New Hampshire place blogging websites, interviews with the bloggers, and oral histories with New Hampshire residents, this research seeks to identify collective memory themes in blogs about New Hampshire and better understand how individuals, and the collective, experience sense of place.  
-Sense of place is influential in constructing the collective memory.  The concept of place and sense of place are studied by a number of fields including anthropologists, environmental psychologists, geographers, historians of landscape architecture and sociologists.   How place and the sense of place is mediated through place blogging, in addition to how it informs collective memory is important to people researching in these and other fields including archival studies.  For archivists, understanding the research potential of blogs about place and their importance in the documentary heritage record could lead to better preservation of these sources.
-This research project is preliminary, limited in scope, and employs a small sample size.  It includes a content analysis of three New Hampshire place blogging websites to uncover themes that connect place blogging with collective memory; research interviews with the authors of the blogs gain insight into the bloggers’ motivations, goals, and designated audience for blogging; his/her inspiration for blogging about place; and his/her use of blogging as personal narrative and social networking tool; and oral history interviews with male and female New Hampshire residents in their mid-twenties to mid-thirties with particular emphasis on place and the meaning of place in their lives.  
-  </t>
-  </si>
-  <si>
     <t xml:space="preserve">This poster highlights ongoing research related to my dissertation. My study is an historical examination of the influences that have played a role in shaping archaeological recordkeeping over the past 100 years. Utilizing data gathered from archival sources and interviews, my goal is to provide analysis of two of the primary influences that have shaped the recordkeeping practices in the U.S. over an extended period of time: technology and policy. There is evidence that both of these forces have been significant in shaping archaeological recordkeeping at various points in time over the last 100 years. It is through a better understanding of these phenomena that my research intends to address theoretical and pragmatic issues for archaeologists and records professionals in the cultural heritage domain. This poster outlines my background research and provides context for my dissertation. I explore how technology and policy have impacted the form of archeological records and provide an analysis of such change over time. Archaeological records provide the context for all material remains collected from archaeological sites. Along with artifacts, archaeological recordkeeping systems represent the sum of what can be known about many past events and extinct cultures. Therefore, my study: 1) Will provide a narrative chronology of archaeological recordkeeping; 2) Will describe in detail the external mandates that lead to evolutionary changes in practices for recording archaeological research; 3) Will help to provide a context for archaeologists and records professionals that are dealing with the current changes occurring in archaeological record keeping and records use. </t>
-  </si>
-  <si>
-    <t>This poster reports on ongoing research investigating the contours of the state of Illinois' African-American cultural heritage infrastructure, from the perspectives of community informatics and community archives. A sample of 270 African-American cultural heritage institutions and initiatives -- including libraries, archives, museums, cultural centers, events, digital projects and historic sites -- from 50 counties across Illinois was amassed. This  sample ranges from the very large DuSable Museum of African-American History to a one-wall  exhibit in the rural Jefferson County Historical Society. Analysis is based on investigating the transformation and continuity of Black community archives activity, in rural, urban and suburban  communities.</t>
   </si>
   <si>
     <t xml:space="preserve">In 1957, the film Pittsburgh was produced to celebrate the city’s history for its Bicentennial.  Considered a failed project, the film was never screened for the public, and disappeared until 1978 when the film was gifted to Pittsburgh Filmmakers, a local film and media center.  Pittsburgh was publicly screened for the first time at the Three Rivers Film Festival in 1979, and was again lost until 2008 when the city began its preparations for the “250 Celebration.”  Pittsburgh Filmmakers received a grant from the Allegheny Regional Asset District (RAD) to transfer the film to HD for screening during the 250 Celebration.  The film was released in 2008 with a package of Pittsburgh related shorts, produced by local artists who were asked to “Reframe” the original footage from the film.  After the celebration, the film was again forgotten.  While the film continues to be stored at the Pittsburgh Filmmakers facility, little has been done to ensure its preservation for future generations of Pittsburghers.  
@@ -371,9 +366,6 @@
     <t>Workshop</t>
   </si>
   <si>
-    <t xml:space="preserve">Posters </t>
-  </si>
-  <si>
     <t>Edward Benoit</t>
   </si>
   <si>
@@ -455,9 +447,6 @@
     <t>Karen Gracy</t>
   </si>
   <si>
-    <t>Kathine Wisser</t>
-  </si>
-  <si>
     <t>Jonathan Dorey</t>
   </si>
   <si>
@@ -551,14 +540,477 @@
     <t>University of Michigan; University of Michigan</t>
   </si>
   <si>
+    <t>United States government financial and military support to anti-communist dictatorships in Latin America generated tens of thousands of secret documents. Efforts to request the declassification of these records were critical during the transitions from authoritarianism and civil wars in Latin America. In 1993, the Clinton administration declassified over 12,000 documents about El Salvador after the publication of the truth commission report. Public pressure during the mid-1990s after the signing of the peace accords between the Guatemalan government and the Guatemalan National Revolutionary Unity influenced the declassification of over 16,000 documents. And in 1999, the U.S. government began the Chile Declassification Project, which released over 24,000 documents. These efforts impacted the work of truth commissions and human rights trials, among other transitional justice mechanisms. This poster presents research done about the impact of U.S. declassified documents in a number of mechanisms of accountability for past human rights abuses in Latin America. It will focus on the declassification initiatives during the 1990s, and particularly regarding El Salvador and Guatemala. This study is part of the participant’s dissertation research, a case study of the National Security Archive in Latin America.</t>
+  </si>
+  <si>
+    <t>The Impact of U.S. Declassified Documents for Transitional Justice Mechanism in Latin America</t>
+  </si>
+  <si>
+    <t>Data sharing and reuse are critical to proteomics research. Critical, in turn, to data sharing and reuse is the provenance of data. To proteomics researchers, provenance is information about how data were collected, who performed the data collection, who funded it, and what has happened to the data during its lifetime. There are also technical aspects to provenance, including any transformations or format migrations that the data have undergone. While archivists agree that provenance is a key part of establishing a record’s trustworthiness, few studies have empirically investigated end-users’ experiences with provenance in a research data archive. In this study, we examine the interaction of provenance metadata and credibility (e.g., trustworthiness and expertise) in the context of scientific data reuse. We explore researchers’ evaluations of provenance metadata in ProteomeCommons, a major research data archive for proteomics data, and situate their use of provenance information encoded in preservation metadata within Brian Hilligoss and Soo Young Rieh’s (2008) framework for credibility assessment. Our primary research questions are: What is the process of determining credibility in the context of a data repository? To what extent does provenance metadata facilitate credibility assessments?</t>
+  </si>
+  <si>
+    <t>"In this paper I am going to present an overview of my experiences using grounded theory in my PhD research. The grounded theory method, as developed by Glaser and Strauss, is used to generate theory from qualitative data through analysis of meaning through space and time. (Glaser &amp; Strauss, 1967; Strauss &amp; Corbin, 2008) The reason why grounded theory was chosen for my PhD topic was because Archival research into online video use in communities was sparse, and so my research project presented an opportunity to build theory “from the ground upwards”. (Williamson, 2002 p. 332)
+Initially, the purpose of using grounded theory was to develop understandings of how Youtube users generate meaning concerning memory and storage, and to also capture the terminology they use to describe it. The purpose of this was to be able to map a lay person’s understandings of archival processes and the terminology captured from the coding was used to compare to common archival technical terminology. However, during 2010 my understandings of what grounded theory was and what it could do were untied, particularly as I began to reflect on my role as researcher in the project.
+This paper is a story of this journey. I talk about the development of my research philosophy and approach to research design with reflections on how I came to understand grounded theory and its purpose as part of my methodological approach.</t>
+  </si>
+  <si>
+    <t>Grounded theory analysis in Archival Science: making sense of data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provenance, End-User Trust and Reuse: An Empirical Investigation </t>
+  </si>
+  <si>
+    <t>Ethnographic Archives: Diversifying the Archival Record Using Ethnographic Research Data</t>
+  </si>
+  <si>
+    <t>The field of archival studies derives much intellectual and practical sustenance from its five thousand year-old history.  But as Helen Tibbo asserts, “Developing means for effective, efficient, and affordable archiving of digital assets stands as one of the most significant, thorny, complex, and pressing problems we face at the beginning of the 21st century” (2003, p. 42). Underpinning the development of such means, archival ethics gestates in moral philosophy and hinges on norms of behavior.  My poster shall depict the evolution of ethics, specifically archival ethics, over time, and shall focus in particular on the challenges spawned by digital materials.  In particular, archival ethics often encompasses a deontological (actions and duties regarding right and wrong) or a teleological (good or bad results from choices made) perspective.  Scholars may grapple with in at least four ways: descriptive (without judgment); normative (prescriptive/ “ought”); applied (real world situation); and meta- (ethics itself).  Similarly, scholars may unpack archival ethics deductively and inductively alike.  But as Karen Benedict notes, “it is a daunting task for a profession to create a code of ethics that presents moral absolutes in an arena where there are many competing, sometimes more fundamental, practical, and pragmatic issues that must be addressed”(2003, p. 3).  The situation begs for clarity.
+Ethical issues also bleed into legal issues in pivotal areas such as privacy, copyright, intellectual property, data security, and taxation.  As such, archival institutions provide access to materials, protect the confidentiality and sensitivity concerns that fall outside the law, and protect and preserve the materials in its collection.  In the midst of these challenges, attending to archival studies thus requires a “delicate balance,” to say the least (Pugh, 2005, p. 152).  In the archival studies literature, however, many of these issues remain terra incognita at best and wholly lacking in empirical rigor at worst.  Ultimately, dodging the questions engendered by archival ethics seems “far worse” than dealing with them, especially since it seems the archival studies community faces a “rocky road” in the future (Cox, 2010, p. 21, 23).  Here, then, I shall make my contribution.  More specifically, I intend to expand my DigCCurr work on archival ethics into a more robust project for AERI.  I will present a poster that depicts the complexity and the exigency of ethics in archival studies with particular attention to the role of digital archival studies in the oft-mentioned phrase “The Information Age” and the frenetic pace of change it brings.</t>
+  </si>
+  <si>
+    <t>Documenting Game Modification: Capturing Context in New Media Development</t>
+  </si>
+  <si>
+    <t>Overall, the literature on personal digital archiving does not provide a solid, unanimous definition of a “personal digital archive.” In general, most literature that discusses a personal digital archive skips over a definition of the term to discuss human behavior surrounding a personal digital archive (personal digital archiving) or tool development to assist in management of a personal digital archive.
+The articles that are most focused on personal digital archiving explore motivation and behavior, while failing to provide a solid definition of the space (the personal digital archive) that the researchers are studying. I propose that a personal digital archive isa collection of digital possessions removed from active/everyday use that are maintained for a variety of reasons. A conscious effort is made to select and maintain these digital possessions.
+This proposed definition is based on the available literature that discusses personal digital archiving , as well as Belk’s (1995) definition of collecting, which states that collected items are removed from everyday use. The literature available partly supports this assertion, but an empirical investigation was necessary to further support the claim. For my presentation, I will report on a pilot study designed to elicit information about how subjects describe their personal information, their desire to maintain the personal information and their own definition of a personal digital archive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My presentation examines how communities that have historically been misrepresented or underrepresented by institutions of power, such as patients of state mental hospitals and their families, can use institutional records as integral and empowering components of their own archives.  The presentation focuses on my own research at Central State Hospital in Petersburg, VA, in conjunction with a literature review on the transition from institutional custodianship to community custodianship of records.  Since little has been written on the archival processes that are involved in the management of legacy hospital records and the role of hospital communities (staff, patient families, etc.) in processing decisions, I argue it is necessary to look at how communities who have faced similar challenges to be represented in public archives and other institutions of memory have developed collections to reflect their histories.  Specifically, postcolonial archival literature can be useful in defining the relationship between archives, institutional records, and communities.  
+Theoretical works by Goffman and Foucault and case studies by archivists such as Harris, Bastian, Punzalan, and Galloway, among others, have informed my understanding of institutions, minority communities, and the power relationships that are manifested and reinforced in records.  Similar to historical mental patient records, colonial era records produced by governing states are rich sources of information about groups and individuals whom institutional powers have tried to monitor and control.  The records also reflect the specific policies and practices of particular institutions and eras, and were often used as a means to discipline and control patient populations.  Therefore, while valuable as societal documentation, these records are not necessarily accurate or holistic accounts of patients’ lives.  My future research lies in analyzing if and how archivists can help construct best practice guidelines and workflows to develop legacy hospital materials into researchable collections, to provide them with richer contextualization (e.g., descriptive metadata, oral narratives, crosswalks with other collections state- or nationwide), and to reflect the voices of those represented in the materials.
+My presentation concludes with a proposed framework for how hospital-related communities can describe, organize, and preserve post-institutional materials, and use information and communication technologies as an activist-oriented archival tool.  Finally, it is my hope that this paper encourages discussion on how archivists can help underrepresented communities develop archives within a larger design of social justice and public memory. </t>
+  </si>
+  <si>
+    <t>Lorrie Dong</t>
+  </si>
+  <si>
+    <t>Nisa Fachry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The increasing amount of EAD finding aids published on the Web has provided an opportunity to increase users access to archival materials. However, many of these online users are often unfamiliar with complex access systems and lack the knowledge required to evaluate the value of the materials. Traditionally, researchers physically visited an archive and develop research skills under the instruction of the reference archivists. In online environment, researchers interact with the access system with little or no mediation from the archivists. The mediation needs to be replicated in online environment and one way to do this is by developing online instructions. Yet, we are missing the knowledge about the kind of instructions the online users need and the impact of the instructions to how users experienced the access system. A better understanding of the instructions and their impacts can increase users access to online finding aids. 
+In order to support users with access to online finding aids, we created two types of instructions: (1) instruction about archival access and (2) instruction about finding aids. Instruction archival access provided general information about the two-stages of archival access, in which a user first assesses the finding aids, and based on the finding aids the user can decide whether or not to consult the archival materials in an archive. Instruction finding aids gives detailed explanation on how collection is described in a finding aid and how to use the finding aid to understand the collection. We conducted a user study with 16 participants evaluating these two instructions. We specifically look at the question: Can the users understand the instructions? To what extent do the users learn from the instructions? What is the impact of instructions on users access to online finding aids? And what is the importance of archival access instruction, relative to the importance of finding aids instruction? </t>
+  </si>
+  <si>
+    <t>Carolyn Hank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The neologisms, bloggership and blogademia, have emerged in recent years, reflecting the adoption of blogs as channels for scholarly communication; the former in reference to legal scholarship blogs, or blawgs, and the latter to blogs across disciplines. This presentation reports select findings from a descriptive study of scholars who blog in the areas of history, economics, law, biology, chemistry and physics. The study examined scholars’ attitudes and perceptions of their blogs in relation to the system of scholarly communication, their preferences for digital preservation, and their respective blog publishing behaviors and blog characteristics influencing preservation action. Drawing from 153 questionnaires, 24 interviews, and content analysis of 93 blogs, this presentation will provide a focused analysis of findings related to preservation preferences. Results from the questionnaire portion of the study show that scholars who blog are generally interested in blog preservation with a strong sense of personal responsibility. Most feel their blogs should be preserved for both personal and public access and use into the indefinite, rather than short-term, future. Respondents identify themselves as most responsible for blog preservation. Concerning capability, they perceive blog service providers, hosts, and networks as most capable. National and institutional-based libraries and archives, as well as institutional IT departments, are perceived as least responsible and least capable for preservation of scholars’ respective blogs. During the subsequent interview portion of the study, participants did not dismiss the value of these organizations. If anything, for some, it is exactly this value that contributes to perceptions of libraries and archives’ low responsibility and capability.
+This presentation will conclude by offering implications from these findings on the potential role, or lack of role, for archives and libraries in the preservation of scholars’ blogs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I intend to present a research paper that has the so-called Brazilian “dictatorship archives” (1964-1985) as its subject. In general, this nomenclature refers to the Departments of Political and Social Order (DOPS) archives of each state of the federation, a kind of political police of the regime, and the archives of the federal agencies responsible for the political repression, especially the National Service of Information (SNI) archives - a body directly linked to the Presidency - and also the Armed Forces archives.
+ Although the documentation of DOPS is in general available in the Public Archives of each state, the documentation of the federal government remains largely inaccessible, despite internal and external pressures claiming for its collection and overture. The excuse about the deadlines established by law has prevailed to deny access to official records. Sometimes it is the very existence of these archives that is denied.
+In 2009, thanks to the then Minister and now President of Brazil, Dilma Roussef, herself a former political prisoner of the military regime, the Political Struggles in Brazil Reference Center (1964-1985) was created, and its name received a significant complement: Revealed Memories. The Center aims not only at making the dictatorship period documents available under custody of the National Archive Institution (the project manager), but to establish a network of public and private institutions, and people looking to share information and archives.
+In my research paper, the Reference Center serves as a starting point for an investigation of the social representations and power dynamics using archives as object. I try to identify the forces involved in the debate about the Center’s foundation, the disputes that emerged on the different ways of accessing documents as well as the tensions that have put, so often sketchy, the archivists and the archival legislation on one side, and the “civil society” demands on the other, into opposing fields.
+My research seeks to place the debate about access issues regarding the “dictatorship archives” in the wider discussions about memory rights in Brazil, trying to identify, on the one hand, the role of the archives in Brazilian political culture, and, on the other, the Brazilian situation compared to other South American countries, with which Brazil shares a history of political repression, but not the ways of managing this past. </t>
+  </si>
+  <si>
+    <t>Luciana Heymann</t>
+  </si>
+  <si>
+    <t>Focus groups in archival institutions: a pilot study (Archival Metrics Project)</t>
+  </si>
+  <si>
+    <t>My proposed research presentation will focus on a project on which I am currently working, as a portion of a larger grant of which I am the Graduate Student Research Assistant, the Archival Metrics Project. The presentation will discuss current work around developing a focus group toolkit for use in archival institutions. This initiative will produce a guide for archivists seeking guidance on conducting focus groups as well as supplementary materials to aid in administration including demographic questionnaires and sample session outlines and ideas. Pilot groups will be conducted with undergraduate students and genealogists; these sessions will address the use of social media by archival institutions and potential users.</t>
+  </si>
+  <si>
+    <t>In response to the widespread looting and destruction of cultural property in the European Theater during World War II, the Allies established the Monuments, Fine Arts, and Archives (MFAA) Sub-commission, a unit charged with safeguarding historic sites and protecting, recovering, and repatriating objects of cultural heritage. This paper discusses the inclusion of an archival program in the MFAA mission and identifies the American and British archivists who were members of the MFAA, along with their notable advocates on the home front.</t>
+  </si>
+  <si>
+    <t>Monuments and monuments men in WWII</t>
+  </si>
+  <si>
+    <t>Joanne Mihelcic</t>
+  </si>
+  <si>
+    <t>Michigan Technological University</t>
+  </si>
+  <si>
+    <t>The Persistent Digital Archives and Library System (PeDALS) sought to describe archival processing of electronic records in terms of business rules that could be automated using middleware. The project also sought to assess whether LOCKSS technology would be appropriate to store archival records. Preliminary findings indicated that it was possible to describe a workflow that was OAIS compliant. As as result, it was possible to use shared practice implemented in software to save costs of development and implementation for many, but not all, record series. Results also pointed to a need for creative approaches that remained grounded in archival principles of provenance and original order, rather than traditional practice, focusing on aggregates of records rather than items.</t>
+  </si>
+  <si>
+    <t>Ricardo Punzalan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In his 1991 work, "Information as Thing", Michael Buckland states: "The term “information” is also used attributively for objects … because they are regarded as being informative, as 'having the quality of imparting knowledge or communicating information; instructive."* Although not traditionally applied in geology, these terms could easily be applied to physical geological samples.  Physical geological samples include objects such as rocks, fossils, oil and other mineral specimen and are considered primary sources of geological information. Providing information about the past and the current geological conditions from where they were collected, physical samples can be taken and stored for future access; they do not change over time. As such, data they hold can be reused, often applied beyond the original intended purpose. 
+Accessing collections of physical samples can be challenging for many users.  To conduct research, scientists must locate repositories of geological collections and search within them successfully. Geological collections resemble archival collections because the organization is often site specific, lacks standardization (and sometimes) requires the researcher to have subject knowledge. Due to these similarities, previous research on archival users may provide insight in to this area. Yakel and Torres’s (2003) concept of Archival Intelligence suggests unique skills are needed beyond subject knowledge to aid archival users in successfully finding resources. The application of this theory to geological settings may provide greater insight into the skills needed by geologists in order to access their materials.
+Pivoting around the research skills of geologists who reuse physical sample materials, a survey will probe the obstacles they have encountered. Participants will describe their information needs when searching these collections, there by showing common information-seeking tasks associated with geological physical sample collections. Several factors may influence this process: age; level of education; search experience; discipline of geology; organizational role; and experience with technology. Finally, this presentation will discuss the survey design and preliminary survey results. This user study will extend the definition of an archival collection into a new area – the physical sciences. The results of this user study can be compared with previous research on archival users, specifically the concept of Archival Intelligence, to explore the applicability of archival research to this area. In addition, the survey results will be used to make recommendations to curators of physical sample collections.  
+Buckland, M. K. (1991). Information as thing. Journal of the American Society for Information Science, 42(5), 351-360.
+doi:10.1002/(SICI)1097-4571(199106)42:5&lt;351::AID-ASI5&gt;3.0.CO;2-3
+Yakel, E., &amp; Torres, D. A. (2003). AI: archival intelligence and user expertise. American Archivist, 66(1), 51–78.
+*Buckland also uses terms such as “tangible” and “evidence” in his description of information.  This too can refer to geological objects which are both physical and collected as evidence of geological events.  </t>
+  </si>
+  <si>
+    <t>Encoded Archival Context - Corporate bodies, persons and families (EAC-CPF), an emerging international standard for the contextual description of entities related to archival materials and other resources, consists of an array of contextual components, including name and descriptive components. The standard also offers the ability to specify relationships to other entities, functions, and resources. This project will provide an overview of the standard and focus on the possibilities of relationships. The research project examines the meaningfulness of relationships in light of existing archival description. The project employs archival finding aids, authority records and related biographical material to examine the relationship structures that are found in archival description as well as those missing from these descriptions. Using a small sample of American literary figures, the project uses social network analysis to not only document connections but to examine their usefulness. The project will suggest issues to be addressed including recommendations for descriptive standards in relation to EAC-CPF.</t>
+  </si>
+  <si>
+    <t>What is your idea of the perfect party you would throw for yourself? How about an intimate gathering of 500 or so of your family and friends at your favorite neighborhood restaurant complete with Japanese Taiko drummers adorned with red headbands and French acrobats dressed in fishnet stockings with knee-high leather spats, and black bustiers hanging from the ceiling.  And for party food, chew over a buffet spread that includes an abundant supply of oysters on the half-shell, shrimp cocktail, and other lovely nibbles all washed down with free flowing flutes of champagne. 
+Does this seem like a recipe for chaos in a conflict of sights, sounds, and tastes that would make your head spin and tummy turn, leaving your body aching with regret the morning after?  Not if you are the Tsunoda family and your restaurant was celebrating its 25th Anniversary in Beverly Hills, CA in October 2009.  They pulled off and pulled out all the stops for the party described above with seeming aplomb, displaying and demonstrating their signature style of traditional hospitality rooted in their family’s over three-hundred year history in the restaurant business, imported from Japan.
+While the party was an evening of good times, the night’s festivities also illustrates what my presentation explores as it considers the performance of food production and consumption as sites for the convergence of histories, cultures, traditions, and technologies. Food embodies and performs the personal and collective histories of those who make all we eat. It is an archive in itself of a past that is practiced everyday, as everyone interacts with food daily.  Food production as performance is the enacted stories of peoples’ histories, experiences, and identities: the embodied archive of memories remade and served.  Using the Tsunoda family restaurant as a case study, this presentation shows how family history is made to order in a Southern Californian restaurant.</t>
+  </si>
+  <si>
+    <t>[No abstract in program.]</t>
+  </si>
+  <si>
+    <t>Denise Anthony</t>
+  </si>
+  <si>
+    <t>Electronic Records Management as an evolving teaching discipline</t>
+  </si>
+  <si>
+    <t>Synthesizing a file format endangerment rating metric</t>
+  </si>
+  <si>
+    <t>Liladhar Pendse</t>
+  </si>
+  <si>
+    <t>Donghee Sinn</t>
+  </si>
+  <si>
+    <t>Ayoung Yoon</t>
+  </si>
+  <si>
+    <t>Virginia Luehrsen</t>
+  </si>
+  <si>
+    <t>Svanhildr Bogadottir</t>
+  </si>
+  <si>
+    <t>Kenneth Lavender</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Iceland</t>
+  </si>
+  <si>
+    <t>Community Archives</t>
+  </si>
+  <si>
+    <t>Imperialisms in the Archive: Tracing Spanish and American Colonialism in the Americas and the Pacific</t>
+  </si>
+  <si>
+    <t>Ellen-Rae Cachola</t>
+  </si>
+  <si>
+    <t>Minji Jo</t>
+  </si>
+  <si>
+    <t>Hankuk University of Foreign Studies</t>
+  </si>
+  <si>
+    <t>David Kim</t>
+  </si>
+  <si>
+    <t>Sung Su Park</t>
+  </si>
+  <si>
+    <t>International Archival Education: Learning and teaching across borders</t>
+  </si>
+  <si>
+    <t>Hea Lim Rhee</t>
+  </si>
+  <si>
+    <t>Anthea Seles</t>
+  </si>
+  <si>
+    <t>Mary Choquette</t>
+  </si>
+  <si>
+    <t>University of Maryland</t>
+  </si>
+  <si>
+    <t>The Meadows School</t>
+  </si>
+  <si>
+    <t>University of California Los Angeles; University of California Los Angeles</t>
+  </si>
+  <si>
+    <t>[No presentation title in program.]</t>
+  </si>
+  <si>
+    <t>University of Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Pittsburgh</t>
+  </si>
+  <si>
+    <t>University of North Carolina; University of North Carolina</t>
+  </si>
+  <si>
+    <t>Practice and implications of digital forensics in an archival setting</t>
+  </si>
+  <si>
+    <t>Theseus in the Labyrinth: Ethics and digital curation</t>
+  </si>
+  <si>
+    <t>Letters from war: Examining the Legacy Project and the use of personal war records in national memory</t>
+  </si>
+  <si>
+    <t>Hallow this ground: Documenting and preserving reenactment as intangible cultural heritage</t>
+  </si>
+  <si>
+    <t>An information system for measuring counterinsurgency progress: The Hamlet Evaluation System in the Vietnam War</t>
+  </si>
+  <si>
+    <t>Confucianism and archival tradition in Korea</t>
+  </si>
+  <si>
+    <t>Understanding personal information organization in computer folders</t>
+  </si>
+  <si>
+    <t>Grounded theory analysis in archival science: making sense of data (YouTube)</t>
+  </si>
+  <si>
+    <t>Social Collections: Archival Practice in Social Media</t>
+  </si>
+  <si>
+    <t>Preserving film festival records: A pilot study</t>
+  </si>
+  <si>
+    <t>Concerning virtual reunification: colonial ethnographic photographs and the ethics of online display</t>
+  </si>
+  <si>
+    <t>Personal digital archiving</t>
+  </si>
+  <si>
+    <t>Preservation needs assessment of personal digital collection: Construction of personal digital archives</t>
+  </si>
+  <si>
+    <t>The Brazilian dictatorship archives</t>
+  </si>
+  <si>
+    <t>Evidence of conquest: Records and the federal acknowledgement process</t>
+  </si>
+  <si>
+    <t>Reliable records and the production of scientific credibility</t>
+  </si>
+  <si>
+    <t>https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
+  </si>
+  <si>
+    <t>Amy Greer; Amelia Abreu; Alexandra Eveleigh; Leisa Gibbons; Allison Krebs; Proscovia Svärd</t>
+  </si>
+  <si>
+    <t>Simmons College; University of Washington; University College London; Monash University; University of Washington; Mid Sweden University</t>
+  </si>
+  <si>
+    <t>Archival preservation and the Digital Millenium Copyright Act: the need for relief action</t>
+  </si>
+  <si>
+    <t>Intersection of job skills and knowledge in archives and libraries</t>
+  </si>
+  <si>
+    <t>David Ferriero</t>
+  </si>
+  <si>
+    <t>National Archives and Records Administration</t>
+  </si>
+  <si>
+    <t>Plenary Address</t>
+  </si>
+  <si>
+    <t>Eric Ketelaar</t>
+  </si>
+  <si>
+    <t>International Archival Education: Learning and teaching across borders: Comparative archivistics</t>
+  </si>
+  <si>
+    <t>https://aeri.gseis.ucla.edu/2011.html; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf; http://aeri.gseis.ucla.edu/AERI%202011%20archive/Plenary%20Sessions%20-%20AERI%202011.pdf</t>
+  </si>
+  <si>
+    <t>International Archival Education: Learning and teaching across borders: Educating students for careers in other countries</t>
+  </si>
+  <si>
+    <t>Meung-Hoan Noh</t>
+  </si>
+  <si>
+    <t>International Archival Education: Learning and teaching across borders: The Theory of Communicative Action of Jürgen Habermas</t>
+  </si>
+  <si>
+    <t>https://aeri.gseis.ucla.edu/2011.html; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
+  </si>
+  <si>
+    <t>Abstract received from author, June 2018. https://aeri.gseis.ucla.edu/AERI%202011%20archive/Research%20Paper%20Presentations%20-%20AERI%202011.pdf; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
+  </si>
+  <si>
+    <t>https://aeri.gseis.ucla.edu/AERI%202011%20archive/Research%20Paper%20Presentations%20-%20AERI%202011.pdf; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
+  </si>
+  <si>
+    <t>https://aeri.gseis.ucla.edu/2011.html; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf; https://aeri.gseis.ucla.edu/AERI%202011%20archive/Plenary%20Sessions%20-%20AERI%202011.pdf</t>
+  </si>
+  <si>
+    <t>https://aeri.gseis.ucla.edu/AERI%202011%20archive/Research%20Paper%20Presentations%20-%20AERI%202011.pdf; https://aeri.gseis.ucla.edu/AERI%202011%20archive/Instructional%20Strategies%20for%20Developing%20Culturally%20Relevant%20Curriculum.%20-%20AERI%202011.pdf; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
+  </si>
+  <si>
+    <t>https://aeri.gseis.ucla.edu/AERI%202011%20archive/Research%20Paper%20Presentations%20-%20AERI%202011.pdf; https://aeri.gseis.ucla.edu/AERI%202011%20archive/Digital%20Pedagogy_%20Approaches%20to%20teaching%20digital%20content.%20-%20AERI%202011.pdf; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
+  </si>
+  <si>
+    <t>Abstract received from author, June 2018. https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
+  </si>
+  <si>
+    <t>Abstract rewritten by author, December 2018. https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
+  </si>
+  <si>
+    <t>Research Session 1</t>
+  </si>
+  <si>
+    <t>Goodwill computer museum and legacy archives</t>
+  </si>
+  <si>
+    <t>Politics of personal record keeping</t>
+  </si>
+  <si>
+    <t>The 21st. Century Indigenous Right to Know</t>
+  </si>
+  <si>
+    <t>Research Session 2</t>
+  </si>
+  <si>
+    <t>Proscovia Svärd</t>
+  </si>
+  <si>
+    <t>Research Session 3</t>
+  </si>
+  <si>
+    <t>The Goodwill Computer Museum (GCM), located in Austin, TX, is dedicated to the continued use and restoration of legacy computer equipment dating back to the early 1960’s. The GCM is of course committed to the collection and exhibit of objects, but it is also concerned with how the authenticity of their collections is defined by the continued functionality and use of technological equipment. GCM is also unique as a museum in the fact that it receives donations through both a standard “front door” donation stream, as well as through the recycling stream from which legacy hardware, software, and documentation is recovered. 
+Over the last four years, the GCM has amassed a large and substantial collection of documentation and software to aid in their mission of restoring and maintaining technological equipment, and helping people “reconnect with memories of their first computer.” Storage of these supporting materials has not been ideal over the years, however, and little processing of the collection has taken place. In 2010, a team of students and faculty from the University of Texas at Austin, with the assistance of a National Historical Publication and Records Commission grant, began working with museum staff to develop accessioning, preservation, and collection development policies to address the growing archives. Work involved a random sample of the software and documentation to identify the range of materials, preservation and conservation issues in the collection, and the relevancy of these materials to current museum goals. The initial assessment of the collection found evidence of some water damage, pest infestation, and deteriorating materials that may be inherent to the unique donation/recycling stream that has supplied the majority of the materials. Additionally, the team has worked to address the challenge of identifying and preserving provenance and original order of materials arriving through the recycling stream on an almost daily basis. At the same time, the team has managed to gain better intellectual control over the material and develop collection development and preservation policies to guide the GCM in their future collection of personal documentation and software. This paper will provide an overview of this work, and what is being done to protect and enhance the GCM’s archive.</t>
+  </si>
+  <si>
+    <t>Research Session 4</t>
+  </si>
+  <si>
+    <t>Elements of archival theory rarely hatch fully formed. In addition to scholarly theoretical study, application of theory across varying institutional settings helps to define accepted professional practice. From the 1950s through the 1970s, as archival theory formed through the publications of T.R. Schellenberg, Ernst Posner, and Margaret Cross Norton, many other manuscript collections developed along alternative lines with purpose and success outside the emerging theoretical framework of professional archival scholarship.
+One such case study is the manuscript collection within the Smithsonian Institution’s National Museum of American History. A significant period of manuscript collecting is associated with its founding as the Museum for History and Technology in 1957 and the opening of exhibit halls in its new museum building in 1964. Curators in this “golden era” at the museum, including Robert Vogel, Barney Finn, and Jack White, helped to amass a significant collection of archival records from mining companies, steam engine manufacturers, railroad locomotive works, and other machinery manufacturers. Through the late 1960s and 1970s, the museum struggled with the administration and use of these collections. It was not until 1982 that the museum established its “Archives Center” with professionally-trained archivists and a formal archival program within the museum.
+With its mission to interpret American industry and the history of technology, the museum successfully preserved important document collections. In many cases, these company records, design blueprints, photographs, and personal papers are the only surviving evidence of specific industrial enterprises. These archival records are a critical means through which historians and the public may explore and understand our shared industrial and technological past.
+Ultimately, this research reveals  that this Smithsonian program was not directly informed by emerging archival theory of the period. Curators did not enter into archival collecting deliberately or with any clear plan for the administration of archival material.
+Although some curators associated with acquiring archival material held advanced degrees in history or engineering, few had any formal curatorial training and none had any archival training. As a museum agency, manuscript items were initially considered as “reference material” in support of object collections, exhibits, and interpretation. Because the material remains of industrial history were often too large for the museum to acquire and curate, archival records were increasingly acquired as acceptable surrogates.
+Methodology for this project includes historical research into institutional records and published accounts of the museum and its curators. In addition, qualitative methods such as in-depth interviews bring ethnographic perspective to the study. This research not only reveals aspects of archival practice at this specific institution but also highlights alternative approaches to manuscript collecting during this important period in the development of archival theory which should inform future collecting in the topical area of business and industrial manuscripts.</t>
+  </si>
+  <si>
+    <t>Research Session 5</t>
+  </si>
+  <si>
+    <t>Research Session 6</t>
+  </si>
+  <si>
+    <t>Research Session 7</t>
+  </si>
+  <si>
+    <t>Research Session 8</t>
+  </si>
+  <si>
+    <t>Research Session 9</t>
+  </si>
+  <si>
+    <t>Research Session 10</t>
+  </si>
+  <si>
+    <t>Research Session 11</t>
+  </si>
+  <si>
+    <t>Fundacao Getulio Vargas Brazil</t>
+  </si>
+  <si>
+    <t>Research Session 12</t>
+  </si>
+  <si>
+    <t>Research Session 13</t>
+  </si>
+  <si>
+    <t>New ideas for new tools; new voices in the archivist-researcher dialogue</t>
+  </si>
+  <si>
+    <t>Research Session 14</t>
+  </si>
+  <si>
+    <t>Research Session 15</t>
+  </si>
+  <si>
+    <t>The first part of this workshop is designed to introduce perspective and existing instructors to general models for designing learning experiences that facilitate learning in a university classroom.
+The second part of this workshop will focus on how to incorporate Native American/Indigenous perspectives and ways of learning (as an example) into curriculum and individual course design.</t>
+  </si>
+  <si>
+    <t>This workshop introduces participants to a range of pedagogical methods for teaching digital content. Presenters will discuss a range of approaches, including digital curriculum laboratories as class components, and the teaching of digital curation. Participants will be invited to contribute their thoughts about how they might advance digital pedagogy within their current environments or places where they hope to be employed in the future. We are hoping for an energetic discussion that critiques what has been presented, raises new ideas, voices concerns, comments on what's not being taught and needs to be, and offers other relevant comment.
+Please come prepared to discuss and debate!</t>
+  </si>
+  <si>
+    <t>Tattoo as record: A corporeal view of archival theory</t>
+  </si>
+  <si>
+    <t>This poster examines the use of personal war letters and diaries as part of a national project of commemoration and collective memory.</t>
+  </si>
+  <si>
+    <t>This poster examines the Hamlet Evaluation System, a scoring system US advisors used to measure the level of control the Government of [South] Vietnam had over its countryside population during the Vietnam War. In particular, the poster looks at the processes and factors that generated and influenced these scores.</t>
+  </si>
+  <si>
+    <t>Katherine Wisser</t>
+  </si>
+  <si>
+    <t>The quest for efficiency in all types of organizations calls for the effective management of information. Both structured and unstructured information needs to be brought into a managed environment which should include long-term preservation. Even though a lot of efforts are being put into the management of information in the two municipalities that are the subjects of my research, it is being done in a fragmentary manner and the long-term perspective is often overlooked due to various reasons. Current e-government developments in Sweden are expected to lead to the merging of government information flows in order to improve service delivery. The Swedish e-Government delegation is a body that was appointed by the Swedish government to propose a strategy on the government authorities’ work on e-Government. It published its report in 2009 with suggestions on how public information should be used to generate e-services. This report and the Swedish National Archive’s report emphasize the need to manager information efficiently in order to enhance national development. The National Archives pre-study report revealed that long-term preservation is still a challenge in many of the government authorities. Since the information and records generated by the municipalities are public, they have to be managed in a manner that will uphold the values of the Swedish tradition of open governance. The focus that is being put on the management of contemporary information in an attempt to elevate efficiency is likely to compromise the principle governing access to public information but also will limit the return on investment if information cannot be re-purposed. This is because digital information needs to be planned for at its creation and since the long-term perspective is not always put into consideration, there is a risk to lose information as technology becomes obsolete. This presentation argues that if information and records are to be used in a manner that will improve service delivery and enhance democracy, a holistic view of its management needs to be developed. The presentation will therefore highlight the challenges that will have to be addressed if the current investments in e-government are to promote effective, accountable and transparent authorities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the key questions for the Storyline Project is around what it means to create a personal archive for the person who has Alzheimer’s Disease. This project seeks to explore the nature of the purposeful creation of records that support memory and identity, and how can they transcend time and place to support identity, which may be changing dramatically.  
+The first phase of this PhD research project is consultation with specialists in psychology, aged care and dementia in order to evaluate the concept and the validity of the approach in caring for people with dementia. Current practice in aged care includes the use of ‘Life Story’ work and Reminiscence, these techniques are usually low technology, paper based, and often directed by the family or carer.  
+The objective of this project is consequently to understand the significance of personal records ‘from the inside’ by “recognising who the person is in the space that they inhabit, in the past, the present and the future”. (Oppenheimer, 2006, p. 193) By using everyday information and media technology, the personal record has the potential to be repurposed. The record becomes multidimensional through the delegation of access and permission, so that a single record may serve many uses depending on the wishes of its owner and the needs of the user.  
+In creating his/her own archive, an individual with Alzheimer’s disease could potentially share selective information with carers and healthcare professionals as evidence of past and present so that these aspects of self are not forgotten by society. It could also allow the person to be represented in changing health, social setting or environment. This presentation discusses the current archival challenges in addressing recordkeeping needs through the creation, appraisal and disposal of the personal record.  
+References
+Oppenheimer, C. (2006). I am, thou art: personal identity in dementia. In Dementia: mind, meaning, and the person, International perspectives in philosophy and psychiatry. Oxford University Press. </t>
+  </si>
+  <si>
+    <t>In this session the PhD students of AERI will be given the opportunity to speak about their issues. This year it has been decided to structure the event as lightning talks* and the theme chosen is the role of PhD students in the Archival Community. Each presentation will be 90 seconds and it is expected that each student will share an idea and an opinion with the audience and promote further discussion. We have provided a list of potential topics below.
+The purpose of these lightning presentations is to outline the windows of  opportunity that are opening up all around doctoral students in future or continued research and education areas. We intend to offer perspectives from the researcher of the future whose challenges now might help pave the way for new ways of thinking about the world. The intention for this plenary is to show flashes of lightning illuminating the dark landscapes of the future.
+We ask interested students to register their interest in participating in this plenary session by adding their names to the wiki, but we will also leave some slots open at the end for anyone who desires to let their thoughts develop more organically. The organizing committee will be in touch closer to AERI to discuss the arrangements of topics and times with pre-registered people. If there are any questions before then, please contact one of the organizing committee (details given below) 
+The format of the plenary session will be 21- 1 ½ minute lightning round presentations (no slides, but illustrations and props are welcome) with a ½ hour large group discussion at the end. Sign up by emailing Amy: amy.greer@gmail.com.
+Some questions to consider for your presentations:
+1. What wider social goals do you see Archival Science (theory) contributing to?
+2. What topics are not discussed in Archival Science, but should be?
+3. What is the role and the value of the PhD student?
+4. What are the big issues for records and archives and what might a PhD student do about them? Examples of such issues are systems development and e-government.
+5. How does your thesis research contribute to the wider Archival landscape, and who might be interested in these new ideas? Is your research useful to practitioners? Should it be?
+6. How do you promote yourself and forge new networks as a PhD student and future researcher/educator?
+7. Does your work crossover with another field? If so where? What role should archival work play, outside of traditional archival publications?
+The organising committee Amy Greer (amy.greer@gmail.com), Ally Krebs (krscholar@gmail.com), Proscovia Svärd (Proscovia.Svard@miun.se), Alexandra Eveleigh (alexandra.eveleigh.09@ucl.ac.uk), Amelia Abreu (ameliacabreu@gmail.com) and Leisa Gibbons (leisa1gibbons@gmail.com)
+A Lightning Talk is a short presentation given at a conference or similar forum. Unlike other presentations, lightning talks last only a few minutes and several will usually be delivered in a single period by different speakers. (Wikipedia)</t>
+  </si>
+  <si>
+    <t>Four speakers on the panel will each give a short presentation on several aspects of international archival education: drawing on and comparing knowledge, approaches and practice from different countries and cultures to build archival education programs and knowledge; preparing students for professional careers in other countries and the enrichments that their needs, knowledge and experience bring to an educational program; educating for intercultural communication; and building a collaborative course involving a number of universities in Europe.
+1. Introduction by the Session Chair: Karen Anderson
+2. Eric Ketelaar: Comparative archivistics In educating archivists and scholars in archivistics comparative studies and methodologies are important. The comparative approach enhances professionality by broadening one’s outlook and improving one’s sensitivity for the cultural context of recordkeeping. Moreover, the comparative position (taken at home or abroad) provides for a new and sometimes better perspective on one’s own situation.
+Discussion time (10 minutes)
+3. Andrew Flinn: Educating students for careers in other countries. Why do students go abroad to study archival science? Universities in the UK have a long history of educating students from Commonwealth countries. How has this enriched programs for archival education, education for research in our discipline and the learning experience for all students? What challenges have educators encountered in program design and development? What are the advantages and disadvantages of teaching separate international and domestic programmes and of integrating the programmes. What strategies can be used to prepare these students, most of whom return home to work in a range of very different environments?
+Discussion time (10 minutes)
+4. Meung-Hoan Noh: The Theory of Communicative Action of Jürgen Habermas: The role of archives in inter-cultural communication and the need for international education discussed in the light of this theoretical framework. Jürgen Habermas contributed to the ideas for the establishing 'citizen society' and the deepening of the democracy of the societies of the world through his researches, for example, The Structural Transformation of the Public Sphere and The Theory of Communicative Action. The archives can play important role as the public sphere and communication agent and center in the sense of the establishing 'governance and citizen society' and the deepening of the democracy. Hereby the successful inter-subjective (inter-cultural) communication between the archivist and the archivist, between the archivist and the user, between the user and the user is crucial for the successful developing and running of the archives. For this, what kind of education do the archivists need? The presentation will treat this question focused on the international dimension.
+Discussion time (10 minutes)
+5. Karen Anderson: Building a Collaborative International Course in Europe: A Steep Learning Curve! ARCHIDIS (Archives and Records Challenges in the Digital Information Society) is an Erasmus Intensive Program: a collaborative course funded by the EU through the Norwegian Centre for International Cooperation in Higher Education. In 2011 it involves 12 universities across 8 countries. 39 students and 12 teachers will go to Marburg for two weeks in August. The course topic is ”Appraisal and Social Memory”. Students will use comparative methodologies to explore the topic and widen their personal knowledge of appraisal approaches. What do we hope to achieve for students? For teachers? For internationalisation of archival education? What were (and are) the challenges encountered in developing a teaching and learning program across so many European cultures and countries?
+Discussion time (10 minutes)
+6. Session closure Each panel member will offer a final thought on the importance of international approaches to archival education and possible strategies and actions for supporting it.</t>
+  </si>
+  <si>
+    <t>This study aimed to gather data on how cultural institutions, specifically archives, libraries, and museums, are making archival moving images available online via institutional websites and videosharing services such as YouTube. Archival moving images, whether they originate as analog motion picture film or video, or were born-digital, can be distinguished from other types of moving image collections by their perceived long-term value; they are materials “intended to be kept so that they may be available for future generations, regardless of their age at the time of acquisition” (see http://www.afana.org/mic.htm). Laptops, cell phones, iPods, and iPads all offer users the opportunity to download, upload, view, and use moving images from library and archival collections in myriad ways and settings, making video consumption an anytime, anyplace phenomenon. This research aims to document current practices, attitudes, and future plans of moving image curators and managers regarding digitization and on-line distribution of archival moving images in the wake of increasingly ubiquitous mobile technologies.
+This research incorporates two data collection strategies:  surveying and interviewing. In the first part of the study, librarians, archivists, and curators responsible for development of digital collections at their institutions were identified and asked to participate in a short (15-20 question) survey aimed at assessing the extent to which their institutions have engaged in or plan to engage in digitization of analog moving image material and acquisition of born-digital moving image material for long-term access and preservation. Questions also explore how digitized/digital moving image material has been made available to users (i.e., through institutional websites, via online catalogs, on videosharing sites, or through institutional repositories such as DSpace or Fedora). The survey will also explore their short- and long-term plans for digitizing audiovisual material. In the second part of the study, the investigator interviewed key informants with experience managing moving image digitization projects. Interview subjects were asked to provide information about digitization projects and programs at their institution, and were also asked to share their opinions and aspirations regarding the future of digital archival moving image collections, particularly in the wake of new distribution channels such as mobile devices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Society of American Archivists and its flagship journal American Archivist celebrate their 75th birthdays in 2011 and 2012, respectively. The intimate relationships among the emergence and development of a profession, its base of published literature, and the emergence of a theory and principled practice are well understood and well documented. (Cox, 1986) Members of the archival profession itself have examined its educational mandate, framework, development, weaknesses, and opportunities almost obsessively since the birth of SAA in 1938. (Goggin, 1884; Miller, 2000; American Archivist, 2000) The archival literature is rife with documentation on arguments largely settled regarding the institutional locus of educational activities, the value of library-based versus history-based education, certification, accreditation, and other mechanisms for validating the quality of education and controlling entry to the profession (Cox 1987).   
+Discussions on the need for the archival academy, led by full-time faculty that Burke (1981) and McCrank (1979) launched, Conway (1988) crystallized, and Cox (2000) documented have largely been silenced by the growth in faculty ranks – evidenced by the attendance at AERI itself. Less deeply investigated is the competition or contention that may exist in these relationships over the nature of the literature that emerges from the growth of professions supported by a maturing educational system. The literature in large and mature professions tends to exist in separate, but perhaps somewhat overlapping spheres of publications that either favor/emphasize research literature produced by academics and scholars pursuing well accepted approaches to the development of new knowledge or favor/emphasize a practice-based perspective that may also be derived from systematic investigation. Comparatively, the archival profession is small in scale and somewhat tightly conscripted by process, user orientation, and theoretical foundation. As such, the culture of archival scholarship coexists and competes for space and attention with the professional culture of archives that has emerged in the 20th century.  
+This paper is a meta-analysis of archival research published in journal articles in North America since 2000. After summarizing several decades of advocacy on the development of archival research in the context of archival education, the point of departure for the analysis is the special issue of American Archivist (2000) containing a range of insightful articles that collectively document the relationship of archival education with professional practice. The paper reviews the predictions proffered in 2000 to establish a foil for a categorization of research writing published as full articles in four English-language archival journals that feature writings by North American archival scholars and practitioners: American Archivist, Archivaria, Archival Science, and Archival Issues. The meta-analysis separates writings by archival faculty from practitioners (at the time of writing) and then analyzes the articles in terms of theoretical grounding, methodology, data source, orientation of implications of the research. 
+What emerges from the meta-analysis is increased clarity on the nature of archival journals as both the product of archival research and foundational texts for archival education, and the roles that authorship play in orienting the theoretical and practical foci of the archival profession. The analysis enables us to avoid hackneyed and overworked arguments about theory versus practice or educators versus practitioners to focus on potential contrasts in approaches to creating new knowledge in the field, which both educators and professional archivists have in common. Accompanying the article is an annotated bibliography of 75 seminal writings on the connections between education and research, one article representing each year of American Archivist publication. 
+References
+American Archivist 63 (Fall-Winter 2000). Special issue on archival education. 
+Burke, Frank. "The Future Course of Archival Theory in the United States." American Archivist 44 (Winter 1981): 40-46.
+Conway, Paul. "Archival Education and the Need for Full time Faculty." American Archivist 51 (Summer 1988): 254-263.
+Cox, Richard J. "Professionalism and Archivists in the United States." American Archivist 49 (Summer 1986): 229-48.
+Cox, Richard J. "American Archival Literature: Expanding Horizons and Continuing Needs, 1901-1987." American Archivist 50 (Summer 1987): 306-23.
+Cox, Richard J. “The Society of American Archivists and Graduate Education: Meeting at the Crossroads,” American Archivist 63 (Fall-Winter 2000): 368-379. 
+Goggin, Jacqueline. "That We Shall Truly Deserve the Title of 'Profession': The Training and Education of Archivists, 1930-1960." American Archivist 47 (Summer 1984): 243-54.
+McCrank, Lawrence J. "Prospects for Integrating Historical and Information Studies in Archival Education." American Archivist 42 (October 1979): 443-55.
+Miller, Fredric M. “The SAA as Sisyphus: Education Since the 1960s.” American Archivist 63 (Fall-Winter 2000): 224-236. </t>
+  </si>
+  <si>
     <t>Film festivals may be viewed as temporary collecting organizations whose primary function is to provide access to curated collections of moving images, which are presented via time-limited events by organizations that may or may not persist past the core event. These organizations manage a rich array of film and video works that are of cultural value and interest. As filmmakers increasingly work only in digital production methods, the digital proportion of film festival holdings increase as well. It is unknown in the research how film festivals maintain or manage film submissions, accepted films, and other festival-related, digital objects past the event production stage. This study will elicit, describe, and analyze the current practices of film festival organizations with respect to the long-term management of the digital materials they maintain. Specifically, the study will investigate whether film festival organizations (FFOs) maintain written documentation of their holdings, collaborate with or deposit materials in institutional archives, and/or have explicit plans for the short- and long-term preservation of digital media in their custody. Findings will inform digital curation research with respect to the creator/producer side of the digital lifecycle model. The research study will proceed in two parts. First, the survey will be tested and refined via a pilot study with one organization, the Durham, NC-based Full Frame film festival. Results gained from the pilot study will be used to refine the content of an online survey, which will be distributed to a national sample of approximately 250-300 film festival organizations.
-The study aims to inform the festival research community, archives and records management specialists, digital curators, and anyone interested in preservation of arts organization materials. Ideally, it will contribute a small piece to the puzzle of what festivals create, acquire, and preserve. Designed to be a pilot investigation, one of the objectives is to obtain useful feedback on records management survey methods -- templates that include questions about both electronic and paper records -- for use with arts organizations like film festivals. The piloting of a survey with a broad sample of active film festivals will inform future design of similar records surveys, and provide some basic information about how festivals are handling data. The research is also intended to provide digital curators with a sense of how the shift to digital production, projection, and distribution may be affecting festival organizations.</t>
-  </si>
-  <si>
-    <t>United States government financial and military support to anti-communist dictatorships in Latin America generated tens of thousands of secret documents. Efforts to request the declassification of these records were critical during the transitions from authoritarianism and civil wars in Latin America. In 1993, the Clinton administration declassified over 12,000 documents about El Salvador after the publication of the truth commission report. Public pressure during the mid-1990s after the signing of the peace accords between the Guatemalan government and the Guatemalan National Revolutionary Unity influenced the declassification of over 16,000 documents. And in 1999, the U.S. government began the Chile Declassification Project, which released over 24,000 documents. These efforts impacted the work of truth commissions and human rights trials, among other transitional justice mechanisms. This poster presents research done about the impact of U.S. declassified documents in a number of mechanisms of accountability for past human rights abuses in Latin America. It will focus on the declassification initiatives during the 1990s, and particularly regarding El Salvador and Guatemala. This study is part of the participant’s dissertation research, a case study of the National Security Archive in Latin America.</t>
-  </si>
-  <si>
-    <t>The Impact of U.S. Declassified Documents for Transitional Justice Mechanism in Latin America</t>
+The study aims to inform the festival research community, archives and records management specialists, digital curators, and anyone interested in preservation of arts organization materials. Ideally, it will contribute a small piece to the puzzle of what festivals create, acquire, and preserve. Designed to be a pilot investigation, one of the objectives is to obtain useful feedback on records management survey method --templates that include questions about both electronic and paper records--for use with arts organizations like film festivals. The piloting of a survey with a broad sample of active film festivals will inform future design of similar records surveys, and provide some basic information about how festivals are handling data. The research is also intended to provide digital curators with a sense of how the shift to digital production, projection, and distribution may be affecting festival organizations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The purpose of this research is to explore the relationship between collective memory and sense of place.  Through a content analysis of New Hampshire place blogging websites, interviews with the bloggers, and oral histories with New Hampshire residents, this research seeks to identify collective memory themes in blogs about New Hampshire and better understand how individuals, and the collective, experience sense of place.  
+Sense of place is influential in constructing the collective memory.  The concept of place and sense of place are studied by a number of fields including anthropologists, environmental psychologists, geographers, historians of landscape architecture and sociologists.   How place and the sense of place is mediated through place blogging, in addition to how it informs collective memory is important to people researching in these and other fields including archival studies.  For archivists, understanding the research potential of blogs about place and their importance in the documentary heritage record could lead to better preservation of these sources.
+This research project is preliminary, limited in scope, and employs a small sample size.  It includes a content analysis of three New Hampshire place blogging websites to uncover themes that connect place blogging with collective memory; research interviews with the authors of the blogs gain insight into the bloggers’ motivations, goals, and designated audience for blogging; his/her inspiration for blogging about place; and his/her use of blogging as personal narrative and social networking tool; and oral history interviews with male and female New Hampshire residents in their mid-twenties to mid-thirties with particular emphasis on place and the meaning of place in their lives.  </t>
   </si>
   <si>
     <t>While museums are often perceived as serving primarily educational or entertainment functions, they frequently serve as research repositories as well.  Museum objects hold great potential as primary sources for research in the sciences and humanities, and are used by scholars in a number of fields.  Members of scholarly communities may both contribute to and make use of research data collections held by museums in the course of their work.  In addition, many museums make available metadata about the objects in their collections and consider databases derived from their physical collections to be valuable research resources.
@@ -573,470 +1025,16 @@
 In the context of several museums, I propose to survey the types of data they make available to scholarly researchers, selecting three or four data collections for further study based on the size and activity of their user communities, seeking a range of disciplinary backgrounds and types of data use.  Within these communities and collections I will identify users to interview about their experiences using data from these sources.  I will also speak with people responsible for the collections to learn about the flow of data into them as well as decisions made about metadata and other information representation issues that affect ongoing use of the collections. By examining the practices of researchers in particular epistemic communities as they make use of museum data in their work, I propose to explore the means by which scholars use museum research data to create new knowledge.</t>
   </si>
   <si>
-    <t>Data sharing and reuse are critical to proteomics research. Critical, in turn, to data sharing and reuse is the provenance of data. To proteomics researchers, provenance is information about how data were collected, who performed the data collection, who funded it, and what has happened to the data during its lifetime. There are also technical aspects to provenance, including any transformations or format migrations that the data have undergone. While archivists agree that provenance is a key part of establishing a record’s trustworthiness, few studies have empirically investigated end-users’ experiences with provenance in a research data archive. In this study, we examine the interaction of provenance metadata and credibility (e.g., trustworthiness and expertise) in the context of scientific data reuse. We explore researchers’ evaluations of provenance metadata in ProteomeCommons, a major research data archive for proteomics data, and situate their use of provenance information encoded in preservation metadata within Brian Hilligoss and Soo Young Rieh’s (2008) framework for credibility assessment. Our primary research questions are: What is the process of determining credibility in the context of a data repository? To what extent does provenance metadata facilitate credibility assessments?</t>
-  </si>
-  <si>
-    <t>"In this paper I am going to present an overview of my experiences using grounded theory in my PhD research. The grounded theory method, as developed by Glaser and Strauss, is used to generate theory from qualitative data through analysis of meaning through space and time. (Glaser &amp; Strauss, 1967; Strauss &amp; Corbin, 2008) The reason why grounded theory was chosen for my PhD topic was because Archival research into online video use in communities was sparse, and so my research project presented an opportunity to build theory “from the ground upwards”. (Williamson, 2002 p. 332)
-Initially, the purpose of using grounded theory was to develop understandings of how Youtube users generate meaning concerning memory and storage, and to also capture the terminology they use to describe it. The purpose of this was to be able to map a lay person’s understandings of archival processes and the terminology captured from the coding was used to compare to common archival technical terminology. However, during 2010 my understandings of what grounded theory was and what it could do were untied, particularly as I began to reflect on my role as researcher in the project.
-This paper is a story of this journey. I talk about the development of my research philosophy and approach to research design with reflections on how I came to understand grounded theory and its purpose as part of my methodological approach.</t>
-  </si>
-  <si>
-    <t>Grounded theory analysis in Archival Science: making sense of data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provenance, End-User Trust and Reuse: An Empirical Investigation </t>
-  </si>
-  <si>
-    <t>Ethnographic Archives: Diversifying the Archival Record Using Ethnographic Research Data</t>
-  </si>
-  <si>
-    <t>The field of archival studies derives much intellectual and practical sustenance from its five thousand year-old history.  But as Helen Tibbo asserts, “Developing means for effective, efficient, and affordable archiving of digital assets stands as one of the most significant, thorny, complex, and pressing problems we face at the beginning of the 21st century” (2003, p. 42). Underpinning the development of such means, archival ethics gestates in moral philosophy and hinges on norms of behavior.  My poster shall depict the evolution of ethics, specifically archival ethics, over time, and shall focus in particular on the challenges spawned by digital materials.  In particular, archival ethics often encompasses a deontological (actions and duties regarding right and wrong) or a teleological (good or bad results from choices made) perspective.  Scholars may grapple with in at least four ways: descriptive (without judgment); normative (prescriptive/ “ought”); applied (real world situation); and meta- (ethics itself).  Similarly, scholars may unpack archival ethics deductively and inductively alike.  But as Karen Benedict notes, “it is a daunting task for a profession to create a code of ethics that presents moral absolutes in an arena where there are many competing, sometimes more fundamental, practical, and pragmatic issues that must be addressed”(2003, p. 3).  The situation begs for clarity.
-Ethical issues also bleed into legal issues in pivotal areas such as privacy, copyright, intellectual property, data security, and taxation.  As such, archival institutions provide access to materials, protect the confidentiality and sensitivity concerns that fall outside the law, and protect and preserve the materials in its collection.  In the midst of these challenges, attending to archival studies thus requires a “delicate balance,” to say the least (Pugh, 2005, p. 152).  In the archival studies literature, however, many of these issues remain terra incognita at best and wholly lacking in empirical rigor at worst.  Ultimately, dodging the questions engendered by archival ethics seems “far worse” than dealing with them, especially since it seems the archival studies community faces a “rocky road” in the future (Cox, 2010, p. 21, 23).  Here, then, I shall make my contribution.  More specifically, I intend to expand my DigCCurr work on archival ethics into a more robust project for AERI.  I will present a poster that depicts the complexity and the exigency of ethics in archival studies with particular attention to the role of digital archival studies in the oft-mentioned phrase “The Information Age” and the frenetic pace of change it brings.</t>
-  </si>
-  <si>
-    <t>Documenting Game Modification: Capturing Context in New Media Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Society of American Archivists and its flagship journal American Archivist celebrate their 75th birthdays in 2011 and 2012, respectively.  The intimate relationships among the emergence and development of a profession, its base of published literature, and the emergence of a theory and principled practice are well understood and well documented. (Cox, 1986) Members of the archival profession itself have examined its educational mandate, framework, development, weaknesses, and opportunities almost obsessively since the birth of SAA in 1938. (Goggin, 1884; Miller, 2000; American Archivist, 2000) The archival literature is rife with documentation on arguments largely settled regarding the institutional locus of educational activities, the value of library-based versus history-based education, certification, accreditation, and other mechanisms for validating the quality of education and controlling entry to the profession (Cox 1987).   
-Discussions on the need for the archival academy, led by full-time faculty that Burke (1981) and McCrank (1979) launched, Conway (1988) crystallized, and Cox (2000) documented have largely been silenced by the growth in faculty ranks – evidenced by the attendance at AERI itself.  Less deeply investigated is the competition or contention that may exist in these relationships over the nature of the literature that emerges from the growth of professions supported by a maturing educational system. The literature in large and mature professions tends to exist in separate, but perhaps somewhat overlapping spheres of publications that either favor/emphasize research literature produced by academics and scholars pursuing well accepted approaches to the development of new knowledge or favor/emphasize a practice-based perspective that may also be derived from systematic investigation.  Comparatively, the archival profession is small in scale and somewhat tightly conscripted by process, user orientation, and theoretical foundation.  As such, the culture of archival scholarship coexists and competes for space and attention with the professional culture of archives that has emerged in the 20th century.  
-This paper is a meta-analysis of archival research published in journal articles in North America since 2000. After summarizing several decades of advocacy on the development of archival research in the context of archival education, the point of departure for the analysis is the special issue of American Archivist (2000) containing a range of insightful articles that collectively document the relationship of archival education with professional practice.  The paper reviews the predictions proffered in 2000 to establish a foil for a categorization of research writing published as full articles in four English-language archival journals that feature writings by North American archival scholars and practitioners: American Archivist, Archivaria, Archival Science, and Archival Issues. The meta-analysis separates writings by archival faculty from practitioners (at the time of writing) and then analyzes the articles in terms of theoretical grounding, methodology, data source, orientation of implications of the research. 
-What emerges from the meta-analysis is increased clarity on the nature of archival journals as both the product of archival research and foundational texts for archival education, and the roles that authorship play in orienting the theoretical and practical foci of the archival profession.  The analysis enables us to avoid hackneyed and overworked arguments about theory versus practice or educators versus practitioners to focus on potential contrasts in approaches to creating new knowledge in the field, which both educators and professional archivists have in common.  Accompanying the article is an annotated bibliography of 75 seminal writings on the connections between education and research, one article representing each year of American Archivist publication. 
-References
-American Archivist 63 (Fall-Winter 2000). Special issue on archival education. 
-Burke, Frank. "The Future Course of Archival Theory in the United States." American Archivist 44 (Winter 1981): 40-46.
-Conway, Paul. "Archival Education and the Need for Full time Faculty." American Archivist 51 (Summer 1988): 254-263.
-Cox, Richard J. "Professionalism and Archivists in the United States." American Archivist 49 (Summer 1986): 229-48.
-Cox, Richard J. "American Archival Literature: Expanding Horizons and Continuing Needs, 1901-1987." American Archivist 50 (Summer 1987): 306-23.
-Cox, Richard J. “The Society of American Archivists and Graduate Education: Meeting at the Crossroads,” American Archivist 63 (Fall-Winter 2000): 368-379. 
-Goggin, Jacqueline. "That We Shall Truly Deserve the Title of 'Profession': The Training and Education of Archivists, 1930-1960." American Archivist 47 (Summer 1984): 243-54.
-McCrank, Lawrence J. "Prospects for Integrating Historical and Information Studies in Archival Education." American Archivist 42 (October 1979): 443-55.
-Miller, Fredric M. “The SAA as Sisyphus: Education Since the 1960s.” American Archivist 63 (Fall-Winter 2000): 224-236. </t>
-  </si>
-  <si>
-    <t>Overall, the literature on personal digital archiving does not provide a solid, unanimous definition of a “personal digital archive.” In general, most literature that discusses a personal digital archive skips over a definition of the term to discuss human behavior surrounding a personal digital archive (personal digital archiving) or tool development to assist in management of a personal digital archive.
-The articles that are most focused on personal digital archiving explore motivation and behavior, while failing to provide a solid definition of the space (the personal digital archive) that the researchers are studying. I propose that a personal digital archive isa collection of digital possessions removed from active/everyday use that are maintained for a variety of reasons. A conscious effort is made to select and maintain these digital possessions.
-This proposed definition is based on the available literature that discusses personal digital archiving , as well as Belk’s (1995) definition of collecting, which states that collected items are removed from everyday use. The literature available partly supports this assertion, but an empirical investigation was necessary to further support the claim. For my presentation, I will report on a pilot study designed to elicit information about how subjects describe their personal information, their desire to maintain the personal information and their own definition of a personal digital archive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My presentation examines how communities that have historically been misrepresented or underrepresented by institutions of power, such as patients of state mental hospitals and their families, can use institutional records as integral and empowering components of their own archives.  The presentation focuses on my own research at Central State Hospital in Petersburg, VA, in conjunction with a literature review on the transition from institutional custodianship to community custodianship of records.  Since little has been written on the archival processes that are involved in the management of legacy hospital records and the role of hospital communities (staff, patient families, etc.) in processing decisions, I argue it is necessary to look at how communities who have faced similar challenges to be represented in public archives and other institutions of memory have developed collections to reflect their histories.  Specifically, postcolonial archival literature can be useful in defining the relationship between archives, institutional records, and communities.  
-Theoretical works by Goffman and Foucault and case studies by archivists such as Harris, Bastian, Punzalan, and Galloway, among others, have informed my understanding of institutions, minority communities, and the power relationships that are manifested and reinforced in records.  Similar to historical mental patient records, colonial era records produced by governing states are rich sources of information about groups and individuals whom institutional powers have tried to monitor and control.  The records also reflect the specific policies and practices of particular institutions and eras, and were often used as a means to discipline and control patient populations.  Therefore, while valuable as societal documentation, these records are not necessarily accurate or holistic accounts of patients’ lives.  My future research lies in analyzing if and how archivists can help construct best practice guidelines and workflows to develop legacy hospital materials into researchable collections, to provide them with richer contextualization (e.g., descriptive metadata, oral narratives, crosswalks with other collections state- or nationwide), and to reflect the voices of those represented in the materials.
-My presentation concludes with a proposed framework for how hospital-related communities can describe, organize, and preserve post-institutional materials, and use information and communication technologies as an activist-oriented archival tool.  Finally, it is my hope that this paper encourages discussion on how archivists can help underrepresented communities develop archives within a larger design of social justice and public memory. </t>
-  </si>
-  <si>
-    <t>Lorrie Dong</t>
-  </si>
-  <si>
-    <t>Nisa Fachry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The increasing amount of EAD finding aids published on the Web has provided an opportunity to increase users access to archival materials. However, many of these online users are often unfamiliar with complex access systems and lack the knowledge required to evaluate the value of the materials. Traditionally, researchers physically visited an archive and develop research skills under the instruction of the reference archivists. In online environment, researchers interact with the access system with little or no mediation from the archivists. The mediation needs to be replicated in online environment and one way to do this is by developing online instructions. Yet, we are missing the knowledge about the kind of instructions the online users need and the impact of the instructions to how users experienced the access system. A better understanding of the instructions and their impacts can increase users access to online finding aids. 
-In order to support users with access to online finding aids, we created two types of instructions: (1) instruction about archival access and (2) instruction about finding aids. Instruction archival access provided general information about the two-stages of archival access, in which a user first assesses the finding aids, and based on the finding aids the user can decide whether or not to consult the archival materials in an archive. Instruction finding aids gives detailed explanation on how collection is described in a finding aid and how to use the finding aid to understand the collection. We conducted a user study with 16 participants evaluating these two instructions. We specifically look at the question: Can the users understand the instructions? To what extent do the users learn from the instructions? What is the impact of instructions on users access to online finding aids? And what is the importance of archival access instruction, relative to the importance of finding aids instruction? </t>
-  </si>
-  <si>
-    <t>Carolyn Hank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The neologisms, bloggership and blogademia, have emerged in recent years, reflecting the adoption of blogs as channels for scholarly communication; the former in reference to legal scholarship blogs, or blawgs, and the latter to blogs across disciplines. This presentation reports select findings from a descriptive study of scholars who blog in the areas of history, economics, law, biology, chemistry and physics. The study examined scholars’ attitudes and perceptions of their blogs in relation to the system of scholarly communication, their preferences for digital preservation, and their respective blog publishing behaviors and blog characteristics influencing preservation action. Drawing from 153 questionnaires, 24 interviews, and content analysis of 93 blogs, this presentation will provide a focused analysis of findings related to preservation preferences. Results from the questionnaire portion of the study show that scholars who blog are generally interested in blog preservation with a strong sense of personal responsibility. Most feel their blogs should be preserved for both personal and public access and use into the indefinite, rather than short-term, future. Respondents identify themselves as most responsible for blog preservation. Concerning capability, they perceive blog service providers, hosts, and networks as most capable. National and institutional-based libraries and archives, as well as institutional IT departments, are perceived as least responsible and least capable for preservation of scholars’ respective blogs. During the subsequent interview portion of the study, participants did not dismiss the value of these organizations. If anything, for some, it is exactly this value that contributes to perceptions of libraries and archives’ low responsibility and capability.
-This presentation will conclude by offering implications from these findings on the potential role, or lack of role, for archives and libraries in the preservation of scholars’ blogs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I intend to present a research paper that has the so-called Brazilian “dictatorship archives” (1964-1985) as its subject. In general, this nomenclature refers to the Departments of Political and Social Order (DOPS) archives of each state of the federation, a kind of political police of the regime, and the archives of the federal agencies responsible for the political repression, especially the National Service of Information (SNI) archives - a body directly linked to the Presidency - and also the Armed Forces archives.
- Although the documentation of DOPS is in general available in the Public Archives of each state, the documentation of the federal government remains largely inaccessible, despite internal and external pressures claiming for its collection and overture. The excuse about the deadlines established by law has prevailed to deny access to official records. Sometimes it is the very existence of these archives that is denied.
-In 2009, thanks to the then Minister and now President of Brazil, Dilma Roussef, herself a former political prisoner of the military regime, the Political Struggles in Brazil Reference Center (1964-1985) was created, and its name received a significant complement: Revealed Memories. The Center aims not only at making the dictatorship period documents available under custody of the National Archive Institution (the project manager), but to establish a network of public and private institutions, and people looking to share information and archives.
-In my research paper, the Reference Center serves as a starting point for an investigation of the social representations and power dynamics using archives as object. I try to identify the forces involved in the debate about the Center’s foundation, the disputes that emerged on the different ways of accessing documents as well as the tensions that have put, so often sketchy, the archivists and the archival legislation on one side, and the “civil society” demands on the other, into opposing fields.
-My research seeks to place the debate about access issues regarding the “dictatorship archives” in the wider discussions about memory rights in Brazil, trying to identify, on the one hand, the role of the archives in Brazilian political culture, and, on the other, the Brazilian situation compared to other South American countries, with which Brazil shares a history of political repression, but not the ways of managing this past. </t>
-  </si>
-  <si>
-    <t>Luciana Heymann</t>
-  </si>
-  <si>
-    <t>Focus groups in archival institutions: a pilot study (Archival Metrics Project)</t>
-  </si>
-  <si>
-    <t>My proposed research presentation will focus on a project on which I am currently working, as a portion of a larger grant of which I am the Graduate Student Research Assistant, the Archival Metrics Project. The presentation will discuss current work around developing a focus group toolkit for use in archival institutions. This initiative will produce a guide for archivists seeking guidance on conducting focus groups as well as supplementary materials to aid in administration including demographic questionnaires and sample session outlines and ideas. Pilot groups will be conducted with undergraduate students and genealogists; these sessions will address the use of social media by archival institutions and potential users.</t>
-  </si>
-  <si>
-    <t>In response to the widespread looting and destruction of cultural property in the European Theater during World War II, the Allies established the Monuments, Fine Arts, and Archives (MFAA) Sub-commission, a unit charged with safeguarding historic sites and protecting, recovering, and repatriating objects of cultural heritage. This paper discusses the inclusion of an archival program in the MFAA mission and identifies the American and British archivists who were members of the MFAA, along with their notable advocates on the home front.</t>
-  </si>
-  <si>
-    <t>Monuments and monuments men in WWII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of the key questions for the Storyline Project is around what it means to create a personal archive for the person who has Alzheimer’s Disease. This project seeks to explore the nature of the purposeful creation of records that support memory and identity, and how can they transcend time and place to support identity, which may be changing dramatically.  
-The first phase of this PhD research project is consultation with specialists in psychology, aged care and dementia in order to evaluate the concept and the validity of the approach in caring for people with dementia. Current practice in aged care includes the use of ‘Life Story’ work and Reminiscence, these techniques are usually low technology, paper based, and often directed by the family or carer.  
-The objective of this project is consequently to understand the significance of personal records ‘from the inside’ by “recognising who the person is in the space that they inhabit, in the past, the present and the future”.  (Oppenheimer, 2006, p. 193) By using everyday information and media technology, the personal record has the potential to be repurposed. The record becomes multidimensional through the delegation of access and permission, so that a single record may serve many uses depending on the wishes of its owner and the needs of the user.  
-In creating his/her own archive, an individual with Alzheimer’s disease could potentially share selective information with carers and healthcare professionals as evidence of past and present so that these aspects of self are not forgotten by society. It could also allow the person to be represented in changing health, social setting or environment. This presentation discusses the current archival challenges in addressing recordkeeping needs through the creation, appraisal and disposal of the personal record.  
-References
-Oppenheimer, C. (2006). I am, thou art: personal identity in dementia. In Dementia: mind, meaning, and the person, International perspectives in philosophy and psychiatry. Oxford University Press. </t>
-  </si>
-  <si>
-    <t>Joanne Mihelcic</t>
-  </si>
-  <si>
-    <t>Michigan Technological University</t>
-  </si>
-  <si>
-    <t>The Persistent Digital Archives and Library System (PeDALS) sought to describe archival processing of electronic records in terms of business rules that could be automated using middleware. The project also sought to assess whether LOCKSS technology would be appropriate to store archival records. Preliminary findings indicated that it was possible to describe a workflow that was OAIS compliant. As as result, it was possible to use shared practice implemented in software to save costs of development and implementation for many, but not all, record series. Results also pointed to a need for creative approaches that remained grounded in archival principles of provenance and original order, rather than traditional practice, focusing on aggregates of records rather than items.</t>
-  </si>
-  <si>
-    <t>Ricardo Punzalan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In his 1991 work, "Information as Thing", Michael Buckland states: "The term “information” is also used attributively for objects … because they are regarded as being informative, as 'having the quality of imparting knowledge or communicating information; instructive."* Although not traditionally applied in geology, these terms could easily be applied to physical geological samples.  Physical geological samples include objects such as rocks, fossils, oil and other mineral specimen and are considered primary sources of geological information. Providing information about the past and the current geological conditions from where they were collected, physical samples can be taken and stored for future access; they do not change over time. As such, data they hold can be reused, often applied beyond the original intended purpose. 
-Accessing collections of physical samples can be challenging for many users.  To conduct research, scientists must locate repositories of geological collections and search within them successfully. Geological collections resemble archival collections because the organization is often site specific, lacks standardization (and sometimes) requires the researcher to have subject knowledge. Due to these similarities, previous research on archival users may provide insight in to this area. Yakel and Torres’s (2003) concept of Archival Intelligence suggests unique skills are needed beyond subject knowledge to aid archival users in successfully finding resources. The application of this theory to geological settings may provide greater insight into the skills needed by geologists in order to access their materials.
-Pivoting around the research skills of geologists who reuse physical sample materials, a survey will probe the obstacles they have encountered. Participants will describe their information needs when searching these collections, there by showing common information-seeking tasks associated with geological physical sample collections. Several factors may influence this process: age; level of education; search experience; discipline of geology; organizational role; and experience with technology. Finally, this presentation will discuss the survey design and preliminary survey results. This user study will extend the definition of an archival collection into a new area – the physical sciences. The results of this user study can be compared with previous research on archival users, specifically the concept of Archival Intelligence, to explore the applicability of archival research to this area. In addition, the survey results will be used to make recommendations to curators of physical sample collections.  
-Buckland, M. K. (1991). Information as thing. Journal of the American Society for Information Science, 42(5), 351-360.
-doi:10.1002/(SICI)1097-4571(199106)42:5&lt;351::AID-ASI5&gt;3.0.CO;2-3
-Yakel, E., &amp; Torres, D. A. (2003). AI: archival intelligence and user expertise. American Archivist, 66(1), 51–78.
-*Buckland also uses terms such as “tangible” and “evidence” in his description of information.  This too can refer to geological objects which are both physical and collected as evidence of geological events.  </t>
-  </si>
-  <si>
-    <t>The quest for efficiency in all types of organizations calls for the effective management of information. Both structured and unstructured information needs to be brought into a managed environment which should include long-term preservation. Even though a lot of efforts are being put into the management of information in the two municipalities that are the subjects of my research, it is being done in a fragmentary manner and the long-term perspective is often overlooked due to various reasons. Current e-government developments in Sweden are expected to lead to the merging of government information flows in order to improve service delivery.  The Swedish e-Government delegation is a body that was appointed by the Swedish government to propose a strategy on the government authorities’ work on e-Government. It published its report in 2009 with suggestions on how public information should be used to generate e-services. This report and the Swedish National Archive’s report emphasize the need to manager information efficiently in order to enhance national development. The National Archives pre-study report revealed that long-term preservation is still a challenge in many of the government authorities. Since the information and records generated by the municipalities are public, they have to be managed in a manner that will uphold the values of the Swedish tradition of open governance. The focus that is being put on the management of contemporary information in an attempt to elevate efficiency is likely to compromise the principle governing access to public information but also will limit the return on investment if information cannot be re-purposed. This is because digital information needs to be planned for at its creation and since the long-term perspective is not always put into consideration, there is a risk to lose information as technology becomes obsolete. This presentation argues that if information and records are to be used in a manner that will improve service delivery and enhance democracy, a holistic view of its management needs to be developed. The presentation will therefore highlight the challenges that will have to be addressed if the current investments in e-government are to promote effective, accountable and transparent authorities.</t>
-  </si>
-  <si>
-    <t>Encoded Archival Context - Corporate bodies, persons and families (EAC-CPF), an emerging international standard for the contextual description of entities related to archival materials and other resources, consists of an array of contextual components, including name and descriptive components. The standard also offers the ability to specify relationships to other entities, functions, and resources. This project will provide an overview of the standard and focus on the possibilities of relationships. The research project examines the meaningfulness of relationships in light of existing archival description. The project employs archival finding aids, authority records and related biographical material to examine the relationship structures that are found in archival description as well as those missing from these descriptions. Using a small sample of American literary figures, the project uses social network analysis to not only document connections but to examine their usefulness. The project will suggest issues to be addressed including recommendations for descriptive standards in relation to EAC-CPF.</t>
-  </si>
-  <si>
-    <t>What is your idea of the perfect party you would throw for yourself? How about an intimate gathering of 500 or so of your family and friends at your favorite neighborhood restaurant complete with Japanese Taiko drummers adorned with red headbands and French acrobats dressed in fishnet stockings with knee-high leather spats, and black bustiers hanging from the ceiling.  And for party food, chew over a buffet spread that includes an abundant supply of oysters on the half-shell, shrimp cocktail, and other lovely nibbles all washed down with free flowing flutes of champagne. 
-Does this seem like a recipe for chaos in a conflict of sights, sounds, and tastes that would make your head spin and tummy turn, leaving your body aching with regret the morning after?  Not if you are the Tsunoda family and your restaurant was celebrating its 25th Anniversary in Beverly Hills, CA in October 2009.  They pulled off and pulled out all the stops for the party described above with seeming aplomb, displaying and demonstrating their signature style of traditional hospitality rooted in their family’s over three-hundred year history in the restaurant business, imported from Japan.
-While the party was an evening of good times, the night’s festivities also illustrates what my presentation explores as it considers the performance of food production and consumption as sites for the convergence of histories, cultures, traditions, and technologies. Food embodies and performs the personal and collective histories of those who make all we eat. It is an archive in itself of a past that is practiced everyday, as everyone interacts with food daily.  Food production as performance is the enacted stories of peoples’ histories, experiences, and identities: the embodied archive of memories remade and served.  Using the Tsunoda family restaurant as a case study, this presentation shows how family history is made to order in a Southern Californian restaurant.</t>
-  </si>
-  <si>
-    <t>[No abstract in program.]</t>
-  </si>
-  <si>
-    <t>Denise Anthony</t>
-  </si>
-  <si>
-    <t>Electronic Records Management as an evolving teaching discipline</t>
-  </si>
-  <si>
-    <t>Synthesizing a file format endangerment rating metric</t>
-  </si>
-  <si>
-    <t>Liladhar Pendse</t>
-  </si>
-  <si>
-    <t>Donghee Sinn</t>
-  </si>
-  <si>
-    <t>Ayoung Yoon</t>
-  </si>
-  <si>
-    <t>Virginia Luehrsen</t>
-  </si>
-  <si>
-    <t>Svanhildr Bogadottir</t>
-  </si>
-  <si>
-    <t>Kenneth Lavender</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> University of Iceland</t>
-  </si>
-  <si>
-    <t>Community Archives</t>
-  </si>
-  <si>
-    <t>Imperialisms in the Archive: Tracing Spanish and American Colonialism in the Americas and the Pacific</t>
-  </si>
-  <si>
-    <t>Ellen-Rae Cachola</t>
-  </si>
-  <si>
-    <t>Minji Jo</t>
-  </si>
-  <si>
-    <t>Hankuk University of Foreign Studies</t>
-  </si>
-  <si>
-    <t>David Kim</t>
-  </si>
-  <si>
-    <t>Sung Su Park</t>
-  </si>
-  <si>
-    <t>International Archival Education: Learning and teaching across borders</t>
-  </si>
-  <si>
-    <t>Four speakers on the panel will each give a short presentation on several aspects of international archival education: drawing on and comparing knowledge, approaches and practice from different countries and cultures to build archival
-education programs and knowledge; preparing students for professional careers in other countries and the enrichments that their needs, knowledge and experience bring to an educational program; educating for intercultural communication; and building a collaborative course involving a number of universities in Europe.
-1. Introduction by the Session Chair: Karen Anderson
-2. Eric Ketelaar: Comparative archivistics In educating archivists and scholars in archivistics comparative studies and methodologies are important. The comparative approach enhances professionality by broadening one’s outlook and improving one’s sensitivity for the cultural context of recordkeeping. Moreover, the comparative position (taken at home or abroad) provides for a new and sometimes better perspective on one’s own situation.
-Discussion time (10 minutes)
-3. Andrew Flinn: Educating students for careers in other countries. Why do students go abroad to study archival science? Universities in the UK have a long history of educating students from Commonwealth countries. How has this enriched programs for archival education, education for research in our discipline and the learning experience for all students? What challenges have educators encountered in program design and development? What are the advantages and disadvantages of teaching separate international and domestic programmes and of integrating the programmes. What strategies can be used to prepare these students, most of whom return home to work in a range of very different environments?
-Discussion time (10 minutes)
-4. Meung-Hoan Noh: The Theory of Communicative Action of Jürgen Habermas: The role of archives in inter-cultural communication and the need for international education discussed in the light of this theoretical framework. Jürgen Habermas contributed to the ideas for the establishing 'citizen society' and the deepening of the democracy of the societies of the world through his researches, for example, The Structural Transformation of the Public Sphere and The Theory of Communicative Action. The archives can play important role as the public sphere and communication agent and center in the sense of the establishing 'governance and citizen society' and the deepening of the democracy. Hereby the successful inter-subjective (inter-cultural) communication between the archivist and the archivist, between the archivist and the user, between the user and the user is crucial for the successful developing and running of the archives. For this, what kind of education do the archivists need? The presentation will treat this question focused on the international dimension.
-Discussion time (10 minutes)
-5. Karen Anderson: Building a Collaborative International Course in Europe: A Steep Learning Curve! ARCHIDIS (Archives and Records Challenges in the Digital Information Society) is an Erasmus Intensive Program: a collaborative course funded by the EU through the Norwegian Centre for International Cooperation in Higher Education. In 2011 it involves 12 universities across 8 countries. 39 students and 12 teachers will go to Marburg for two weeks in August. The course topic is ”Appraisal and Social Memory”. Students will use comparative methodologies to explore the topic and widen their personal knowledge of appraisal approaches. What do we hope to achieve for students? For teachers? For internationalisation of archival education? What were (and are) the challenges encountered in developing a teaching and learning program across so many European cultures and countries?
-Discussion time (10 minutes)
-6. Session closure Each panel member will offer a final thought on the importance of international approaches to archival education and possible strategies and actions for supporting it.</t>
-  </si>
-  <si>
-    <t>Hea Lim Rhee</t>
-  </si>
-  <si>
-    <t>Anthea Seles</t>
-  </si>
-  <si>
-    <t>Mary Choquette</t>
-  </si>
-  <si>
-    <t>University of Maryland</t>
-  </si>
-  <si>
-    <t>The Meadows School</t>
-  </si>
-  <si>
-    <t>University of California Los Angeles; University of California Los Angeles</t>
-  </si>
-  <si>
-    <t>[No presentation title in program.]</t>
-  </si>
-  <si>
-    <t>University of Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> University of Pittsburgh</t>
-  </si>
-  <si>
-    <t>University of North Carolina; University of North Carolina</t>
-  </si>
-  <si>
-    <t>Practice and implications of digital forensics in an archival setting</t>
-  </si>
-  <si>
-    <t>Theseus in the Labyrinth: Ethics and digital curation</t>
-  </si>
-  <si>
-    <t>Letters from war: Examining the Legacy Project and the use of personal war records in national memory</t>
-  </si>
-  <si>
-    <t>Hallow this ground: Documenting and preserving reenactment as intangible cultural heritage</t>
-  </si>
-  <si>
-    <t>An information system for measuring counterinsurgency progress: The Hamlet Evaluation System in the Vietnam War</t>
-  </si>
-  <si>
-    <t>Confucianism and archival tradition in Korea</t>
-  </si>
-  <si>
-    <t>Understanding personal information organization in computer folders</t>
-  </si>
-  <si>
-    <t>Grounded theory analysis in archival science: making sense of data (YouTube)</t>
-  </si>
-  <si>
-    <t>Social Collections: Archival Practice in Social Media</t>
-  </si>
-  <si>
-    <t>Preserving film festival records: A pilot study</t>
-  </si>
-  <si>
-    <t>Concerning virtual reunification: colonial ethnographic photographs and the ethics of online display</t>
-  </si>
-  <si>
-    <t>Personal digital archiving</t>
-  </si>
-  <si>
-    <t>Preservation needs assessment of personal digital collection: Construction of personal digital archives</t>
-  </si>
-  <si>
-    <t>The Brazilian dictatorship archives</t>
-  </si>
-  <si>
-    <t>Evidence of conquest: Records and the federal acknowledgement process</t>
-  </si>
-  <si>
-    <t>Reliable records and the production of scientific credibility</t>
-  </si>
-  <si>
-    <t>https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
-  </si>
-  <si>
-    <t>Amy Greer; Amelia Abreu; Alexandra Eveleigh; Leisa Gibbons; Allison Krebs; Proscovia Svärd</t>
-  </si>
-  <si>
-    <t>Simmons College; University of Washington; University College London; Monash University; University of Washington; Mid Sweden University</t>
-  </si>
-  <si>
-    <t>Archival preservation and the Digital Millenium Copyright Act: the need for relief action</t>
-  </si>
-  <si>
-    <t>Intersection of job skills and knowledge in archives and libraries</t>
-  </si>
-  <si>
-    <t>David Ferriero</t>
-  </si>
-  <si>
-    <t>National Archives and Records Administration</t>
-  </si>
-  <si>
-    <t>Plenary Address</t>
-  </si>
-  <si>
-    <t>Eric Ketelaar</t>
-  </si>
-  <si>
-    <t>International Archival Education: Learning and teaching across borders: Comparative archivistics</t>
-  </si>
-  <si>
-    <t>https://aeri.gseis.ucla.edu/2011.html; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf; http://aeri.gseis.ucla.edu/AERI%202011%20archive/Plenary%20Sessions%20-%20AERI%202011.pdf</t>
-  </si>
-  <si>
-    <t>International Archival Education: Learning and teaching across borders: Educating students for careers in other countries</t>
-  </si>
-  <si>
-    <t>Meung-Hoan Noh</t>
-  </si>
-  <si>
-    <t>International Archival Education: Learning and teaching across borders: The Theory of Communicative Action of Jürgen Habermas</t>
-  </si>
-  <si>
-    <t>https://aeri.gseis.ucla.edu/2011.html; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
-  </si>
-  <si>
-    <t>Abstract received from author, June 2018. https://aeri.gseis.ucla.edu/AERI%202011%20archive/Research%20Paper%20Presentations%20-%20AERI%202011.pdf; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
-  </si>
-  <si>
-    <t>https://aeri.gseis.ucla.edu/AERI%202011%20archive/Research%20Paper%20Presentations%20-%20AERI%202011.pdf; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
-  </si>
-  <si>
-    <t>https://aeri.gseis.ucla.edu/2011.html; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf; https://aeri.gseis.ucla.edu/AERI%202011%20archive/Plenary%20Sessions%20-%20AERI%202011.pdf</t>
-  </si>
-  <si>
-    <t>https://aeri.gseis.ucla.edu/AERI%202011%20archive/Research%20Paper%20Presentations%20-%20AERI%202011.pdf; No Abstract -- per author June 2018; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
-  </si>
-  <si>
-    <t>https://aeri.gseis.ucla.edu/AERI%202011%20archive/Research%20Paper%20Presentations%20-%20AERI%202011.pdf; https://aeri.gseis.ucla.edu/AERI%202011%20archive/Instructional%20Strategies%20for%20Developing%20Culturally%20Relevant%20Curriculum.%20-%20AERI%202011.pdf; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
-  </si>
-  <si>
-    <t>https://aeri.gseis.ucla.edu/AERI%202011%20archive/Research%20Paper%20Presentations%20-%20AERI%202011.pdf; https://aeri.gseis.ucla.edu/AERI%202011%20archive/Digital%20Pedagogy_%20Approaches%20to%20teaching%20digital%20content.%20-%20AERI%202011.pdf; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
-  </si>
-  <si>
-    <t>Abstract received from author, June 2018. https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
-  </si>
-  <si>
-    <t>No abstract -- per author; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
-  </si>
-  <si>
-    <t>Not available per author -- author sent the poster; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
-  </si>
-  <si>
-    <t>No abstract -- author sent poster; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
-  </si>
-  <si>
-    <t>Abstract rewritten by author, December 2018. https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
-  </si>
-  <si>
-    <t>Research Session 1</t>
-  </si>
-  <si>
-    <t>Goodwill computer museum and legacy archives</t>
-  </si>
-  <si>
-    <t>Politics of personal record keeping</t>
-  </si>
-  <si>
-    <t>The 21st. Century Indigenous Right to Know</t>
-  </si>
-  <si>
-    <t>Research Session 2</t>
-  </si>
-  <si>
-    <t>Proscovia Svärd</t>
-  </si>
-  <si>
-    <t>Research Session 3</t>
-  </si>
-  <si>
-    <t>The Goodwill Computer Museum (GCM), located in Austin, TX, is dedicated to the continued use and restoration of legacy computer equipment dating back to the early 1960’s. The GCM is of course committed to the collection and exhibit of objects, but it is also concerned with how the authenticity of their collections is defined by the continued functionality and use of technological equipment. GCM is also unique as a museum in the fact that it receives donations through both a standard “front door” donation stream, as well as through the recycling stream from which legacy hardware, software, and documentation is recovered. 
-Over the last four years, the GCM has amassed a large and substantial collection of documentation and software to aid in their mission of restoring and maintaining technological equipment, and helping people “reconnect with memories of their first computer.” Storage of these supporting materials has not been ideal over the years, however, and little processing of the collection has taken place. In 2010, a team of students and faculty from the University of Texas at Austin, with the assistance of a National Historical Publication and Records Commission grant, began working with museum staff to develop accessioning, preservation, and collection development policies to address the growing archives. Work involved a random sample of the software and documentation to identify the range of materials, preservation and conservation issues in the collection, and the relevancy of these materials to current museum goals. The initial assessment of the collection found evidence of some water damage, pest infestation, and deteriorating materials that may be inherent to the unique donation/recycling stream that has supplied the majority of the materials. Additionally, the team has worked to address the challenge of identifying and preserving provenance and original order of materials arriving through the recycling stream on an almost daily basis. At the same time, the team has managed to gain better intellectual control over the material and develop collection development and preservation policies to guide the GCM in their future collection of personal documentation and software. This paper will provide an overview of this work, and what is being done to protect and enhance the GCM’s archive.</t>
-  </si>
-  <si>
-    <t>Research Session 4</t>
-  </si>
-  <si>
-    <t>Elements of archival theory rarely hatch fully formed. In addition to scholarly theoretical study, application of theory across varying institutional settings helps to define accepted professional practice. From the 1950s through the 1970s, as archival theory formed through the publications of T.R. Schellenberg, Ernst Posner, and Margaret Cross Norton, many other manuscript collections developed along alternative lines with purpose and success outside the emerging theoretical framework of professional archival scholarship.
-One such case study is the manuscript collection within the Smithsonian Institution’s National Museum of American History. A significant period of manuscript collecting is associated with its founding as the Museum for History and Technology in 1957 and the opening of exhibit halls in its new museum building in 1964. Curators in this “golden era” at the museum, including Robert Vogel, Barney Finn, and Jack White, helped to amass a significant collection of archival records from mining companies, steam engine manufacturers, railroad locomotive works, and other machinery manufacturers. Through the late 1960s and 1970s, the museum struggled with the administration and use of these collections. It was not until 1982 that the museum established its “Archives Center” with professionally-trained archivists and a formal archival program within the museum.
-With its mission to interpret American industry and the history of technology, the museum successfully preserved important document collections. In many cases, these company records, design blueprints, photographs, and personal papers are the only surviving evidence of specific industrial enterprises. These archival records are a critical means through which historians and the public may explore and understand our shared industrial and technological past.
-Ultimately, this research reveals  that this Smithsonian program was not directly informed by emerging archival theory of the period. Curators did not enter into archival collecting deliberately or with any clear plan for the administration of archival material.
-Although some curators associated with acquiring archival material held advanced degrees in history or engineering, few had any formal curatorial training and none had any archival training. As a museum agency, manuscript items were initially considered as “reference material” in support of object collections, exhibits, and interpretation. Because the material remains of industrial history were often too large for the museum to acquire and curate, archival records were increasingly acquired as acceptable surrogates.
-Methodology for this project includes historical research into institutional records and published accounts of the museum and its curators. In addition, qualitative methods such as in-depth interviews bring ethnographic perspective to the study. This research not only reveals aspects of archival practice at this specific institution but also highlights alternative approaches to manuscript collecting during this important period in the development of archival theory which should inform future collecting in the topical area of business and industrial manuscripts.</t>
-  </si>
-  <si>
-    <t>Research Session 5</t>
-  </si>
-  <si>
-    <t>Research Session 6</t>
-  </si>
-  <si>
-    <t>Research Session 7</t>
-  </si>
-  <si>
-    <t>Research Session 8</t>
-  </si>
-  <si>
-    <t>In this session the PhD students of AERI will be given the opportunity to speak about their issues. This year it has been decided to structure the event as lightning talks* and the theme chosen is the role of PhD students in the Archival Community. Each presentation will be 90 seconds and it is expected that each student will share an idea and an opinion with the audience and promote further discussion. We have provided a list of potential topics below.
-The purpose of these lightning presentations is to outline the windows of  opportunity that are opening up all around doctoral students in future or continued research and education areas. We intend to offer perspectives from the researcher of the future whose challenges now might help pave the way for new ways of thinking about the world. The intention for this plenary is to show flashes of lightning illuminating the dark landscapes of the future.
-We ask interested students to register their interest in participating in this plenary session by adding their names to the wiki, but we will also leave some slots open at the end for anyone who desires to let their thoughts develop more organically. The organizing committee will be in touch closer to AERI to discuss the arrangements of topics and times with pre-registered people. If there are any questions before then, please contact one of the organizing committee (details given below) 
-The format of the plenary session will be 21- 1 ½ minute lightning round presentations (no slides, but
-illustrations and props are welcome) with a ½ hour large group discussion at the end. Sign up by
-emailing Amy: amy.greer@gmail.com.
-Some questions to consider for your presentations:
-1. What wider social goals do you see Archival Science (theory) contributing to?
-2. What topics are not discussed in Archival Science, but should be?
-3. What is the role and the value of the PhD student?
-4. What are the big issues for records and archives and what might a PhD student do about them? Examples of such issues are systems development and e-government.
-5. How does your thesis research contribute to the wider Archival landscape, and who might be interested in these new ideas? Is your research useful to practitioners? Should it be?
-6. How do you promote yourself and forge new networks as a PhD student and future researcher/educator?
-7. Does your work crossover with another field? If so where? What role should archival work play, outside of traditional archival publications?
-The organising committee Amy Greer (amy.greer@gmail.com), Ally Krebs (krscholar@gmail.com), Proscovia Svärd (Proscovia.Svard@miun.se), Alexandra Eveleigh (alexandra.eveleigh.09@ucl.ac.uk), Amelia Abreu (ameliacabreu@gmail.com) and Leisa Gibbons (leisa1gibbons@gmail.com)
-A Lightning Talk is a short presentation given at a conference or similar forum. Unlike other presentations, lightning talks last only a few minutes and several will usually be delivered in a single period by different speakers. (Wikipedia)</t>
-  </si>
-  <si>
-    <t>Research Session 9</t>
-  </si>
-  <si>
-    <t>Research Session 10</t>
-  </si>
-  <si>
-    <t>Research Session 11</t>
-  </si>
-  <si>
-    <t>Fundacao Getulio Vargas Brazil</t>
-  </si>
-  <si>
-    <t>Research Session 12</t>
-  </si>
-  <si>
-    <t>Research Session 13</t>
-  </si>
-  <si>
-    <t>New ideas for new tools; new voices in the archivist-researcher dialogue</t>
-  </si>
-  <si>
-    <t>Research Session 14</t>
-  </si>
-  <si>
-    <t>Research Session 15</t>
-  </si>
-  <si>
-    <t>The first part of this workshop is designed to introduce perspective and existing instructors to general models for designing learning experiences that facilitate learning in a university classroom.
-The second part of this workshop will focus on how to incorporate Native American/Indigenous perspectives and ways of learning (as an example) into curriculum and individual course design.</t>
-  </si>
-  <si>
-    <t>This workshop introduces participants to a range of pedagogical methods for teaching digital content. Presenters will discuss a range of approaches, including digital curriculum laboratories as class components, and the teaching of digital curation. Participants will be invited to contribute their thoughts about how they might advance digital pedagogy within their current environments or places where they hope to be employed in the future. We are hoping for an energetic discussion that critiques what has been presented, raises new ideas, voices concerns, comments on what's not being taught and needs to be, and offers other relevant comment.
-Please come prepared to discuss and debate!</t>
-  </si>
-  <si>
-    <t>Tattoo as record: A corporeal view of archival theory</t>
-  </si>
-  <si>
-    <t>This poster examines the use of personal war letters and diaries as part of a national project of commemoration and collective memory.</t>
-  </si>
-  <si>
-    <t>This poster examines the Hamlet Evaluation System, a scoring system US advisors used to measure the level of control the Government of [South] Vietnam had over its countryside population during the Vietnam War. In particular, the poster looks at the processes and factors that generated and influenced these scores.</t>
+    <t>This poster reports on ongoing research investigating the contours of the state of Illinois' African-American cultural heritage infrastructure, from the perspectives of community informatics and community archives. A sample of 270 African-American cultural heritage institutions and initiatives--including libraries, archives, museums, cultural centers, events, digital projects and historic sites--from 50 counties across Illinois was amassed. This  sample ranges from the very large DuSable Museum of African-American History to a one-wall exhibit in the rural Jefferson County Historical Society. Analysis is based on investigating the transformation and continuity of Black community archives activity, in rural, urban and suburban  communities.</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>No Abstract, per author, June 2018. https://aeri.gseis.ucla.edu/AERI%202011%20archive/Research%20Paper%20Presentations%20-%20AERI%202011.pdf; https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
+  </si>
+  <si>
+    <t>No Abstract, per author, June 2018. https://github.com/hsoyka/AERI/blob/master/AERI%202011%20program.pdf</t>
   </si>
 </sst>
 </file>
@@ -1049,14 +1047,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="204"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1141,12 +1138,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1420,11 +1418,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1765,21 +1764,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="21.69921875" customWidth="1"/>
+    <col min="2" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="53.5" customWidth="1"/>
     <col min="7" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="32.296875" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="19">
         <v>2011001</v>
       </c>
@@ -1816,7 +1815,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -1825,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -1834,253 +1833,253 @@
         <v>10</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>2011002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>2011003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>2011004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>2011005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>2011006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>2011007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>2011008</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>2011009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="372" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>2011010</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>20</v>
@@ -2089,161 +2088,161 @@
         <v>92</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>2011011</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>2011012</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>2011013</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>2011014</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>2011015</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>2011016</v>
       </c>
@@ -2251,16 +2250,16 @@
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>10</v>
@@ -2269,108 +2268,108 @@
         <v>10</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>2011017</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>2011018</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>2011019</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>194</v>
+        <v>290</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>2011020</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>31</v>
@@ -2379,372 +2378,372 @@
         <v>93</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>2011021</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>2011022</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>2011023</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>2011024</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>2011025</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>2011026</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="218.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>2011027</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>2011028</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>2011029</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>2011030</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>2011031</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>2011032</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>2011033</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>10</v>
@@ -2753,7 +2752,7 @@
         <v>41</v>
       </c>
       <c r="F34" s="56" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>10</v>
@@ -2762,21 +2761,21 @@
         <v>10</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="323" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>2011034</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>42</v>
@@ -2785,248 +2784,248 @@
         <v>95</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>2011035</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>2011036</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="59" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="156" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>2011037</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D38" s="60" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
         <v>2011038</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D39" s="61" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>2011039</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>2011040</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D41" s="63" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>2011041</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
         <v>2011042</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>2011043</v>
       </c>
@@ -3034,16 +3033,16 @@
         <v>63</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="66" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>10</v>
@@ -3052,15 +3051,15 @@
         <v>10</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <v>2011044</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>14</v>
@@ -3069,10 +3068,10 @@
         <v>10</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>10</v>
@@ -3081,10 +3080,10 @@
         <v>10</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>2011045</v>
       </c>
@@ -3092,16 +3091,16 @@
         <v>28</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>10</v>
@@ -3110,27 +3109,27 @@
         <v>10</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>2011046</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>10</v>
@@ -3139,387 +3138,387 @@
         <v>10</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>2011047</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="67" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>2011048</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D49" s="68" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>2011049</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I50" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
         <v>2011050</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="70" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I51" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>2011051</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D52" s="71" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I52" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <v>2011052</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D53" s="72" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <v>2011053</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D54" s="73" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>97</v>
+        <v>293</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="312" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="340" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <v>2011054</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>137</v>
+        <v>288</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D55" s="74" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <v>2011055</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="221" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
         <v>2011056</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D57" s="76" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I57" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
         <v>2011057</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D58" s="77" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I58" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
         <v>2011058</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D59" s="78" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>180</v>
+        <v>294</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
         <v>2011059</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D60" s="79" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I60" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
         <v>2011060</v>
       </c>
@@ -3527,86 +3526,86 @@
         <v>76</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D61" s="80" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
         <v>2011061</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D62" s="81" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I62" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
         <v>2011062</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D63" s="82" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
         <v>2011063</v>
       </c>
@@ -3614,28 +3613,28 @@
         <v>58</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E64" s="83" t="s">
         <v>59</v>
       </c>
       <c r="F64" s="84" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I64" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
         <v>2011064</v>
       </c>
@@ -3643,16 +3642,16 @@
         <v>57</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>10</v>
@@ -3661,39 +3660,39 @@
         <v>10</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
         <v>2011065</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I66" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="218.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
         <v>2011066</v>
       </c>
@@ -3701,28 +3700,28 @@
         <v>61</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E67" s="85" t="s">
         <v>62</v>
       </c>
       <c r="F67" s="86" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I67" s="20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
         <v>2011067</v>
       </c>
@@ -3730,7 +3729,7 @@
         <v>63</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>64</v>
@@ -3739,19 +3738,19 @@
         <v>65</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>109</v>
+        <v>299</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
         <v>2011068</v>
       </c>
@@ -3759,28 +3758,28 @@
         <v>66</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>109</v>
+        <v>295</v>
+      </c>
+      <c r="G69" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="388" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
         <v>2011069</v>
       </c>
@@ -3788,28 +3787,28 @@
         <v>67</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>109</v>
+        <v>164</v>
+      </c>
+      <c r="G70" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I70" s="20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
         <v>2011070</v>
       </c>
@@ -3817,7 +3816,7 @@
         <v>68</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>64</v>
@@ -3826,48 +3825,48 @@
         <v>69</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+      <c r="G71" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I71" s="20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
         <v>2011071</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E72" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G72" s="87" t="s">
+        <v>299</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I72" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I72" s="20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
         <v>2011072</v>
       </c>
@@ -3875,7 +3874,7 @@
         <v>70</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>64</v>
@@ -3884,19 +3883,19 @@
         <v>71</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>109</v>
+        <v>296</v>
+      </c>
+      <c r="G73" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I73" s="21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
         <v>2011073</v>
       </c>
@@ -3904,7 +3903,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>64</v>
@@ -3913,19 +3912,19 @@
         <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
+      </c>
+      <c r="G74" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I74" s="21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
         <v>2011074</v>
       </c>
@@ -3933,7 +3932,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>64</v>
@@ -3942,48 +3941,48 @@
         <v>75</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>109</v>
+        <v>297</v>
+      </c>
+      <c r="G75" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="388" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
         <v>2011075</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>109</v>
+        <v>166</v>
+      </c>
+      <c r="G76" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I76" s="20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
         <v>2011076</v>
       </c>
@@ -3991,28 +3990,28 @@
         <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>109</v>
+        <v>167</v>
+      </c>
+      <c r="G77" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I77" s="20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
         <v>2011077</v>
       </c>
@@ -4020,28 +4019,28 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>109</v>
+        <v>193</v>
+      </c>
+      <c r="G78" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I78" s="20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="221" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
         <v>2011078</v>
       </c>
@@ -4049,7 +4048,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>64</v>
@@ -4058,19 +4057,19 @@
         <v>79</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>109</v>
+        <v>298</v>
+      </c>
+      <c r="G79" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I79" s="21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
         <v>2011079</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>64</v>
@@ -4087,48 +4086,48 @@
         <v>81</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="G80" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I80" s="21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
         <v>2011080</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>109</v>
+        <v>193</v>
+      </c>
+      <c r="G81" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I81" s="20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
         <v>2011081</v>
       </c>
@@ -4142,22 +4141,22 @@
         <v>64</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>109</v>
+        <v>193</v>
+      </c>
+      <c r="G82" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I82" s="20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
         <v>2011082</v>
       </c>
@@ -4165,28 +4164,28 @@
         <v>83</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>109</v>
+        <v>171</v>
+      </c>
+      <c r="G83" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I83" s="20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
         <v>2011083</v>
       </c>
@@ -4200,22 +4199,22 @@
         <v>64</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>109</v>
+        <v>193</v>
+      </c>
+      <c r="G84" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I84" s="20" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
         <v>2011084</v>
       </c>
@@ -4223,28 +4222,28 @@
         <v>85</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="F85" s="88" t="s">
-        <v>302</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>109</v>
+        <v>286</v>
+      </c>
+      <c r="G85" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
         <v>2011085</v>
       </c>
@@ -4252,28 +4251,28 @@
         <v>86</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>109</v>
+        <v>193</v>
+      </c>
+      <c r="G86" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A87" s="19">
         <v>2011086</v>
       </c>
@@ -4281,28 +4280,28 @@
         <v>87</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F87" s="89" t="s">
-        <v>303</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>109</v>
+        <v>287</v>
+      </c>
+      <c r="G87" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I87" s="20" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="19">
         <v>2011087</v>
       </c>
@@ -4310,28 +4309,28 @@
         <v>88</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G88" s="87" t="s">
+        <v>299</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I88" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I88" s="20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="19">
         <v>2011088</v>
       </c>
@@ -4339,45 +4338,45 @@
         <v>89</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>109</v>
+        <v>193</v>
+      </c>
+      <c r="G89" s="87" t="s">
+        <v>299</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I89" s="20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
         <v>2011089</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>10</v>
@@ -4386,11 +4385,16 @@
         <v>10</v>
       </c>
       <c r="I90" s="20" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>